--- a/output.xlsx
+++ b/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A2:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,82 +437,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>AED</t>
         </is>
       </c>
     </row>
@@ -522,44 +460,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -569,33 +477,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2000</v>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4000</v>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L4" t="n">
-        <v>20000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20000</v>
       </c>
     </row>
     <row r="5">
@@ -604,44 +494,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:34</t>
-        </is>
-      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:35</t>
-        </is>
-      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:35</t>
         </is>
       </c>
     </row>
@@ -651,33 +511,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>31.963</v>
-      </c>
-      <c r="C6" t="n">
-        <v>31.9941</v>
-      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>31.963</v>
-      </c>
-      <c r="H6" t="n">
-        <v>31.9941</v>
-      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L6" t="n">
-        <v>31.963</v>
-      </c>
-      <c r="M6" t="n">
-        <v>31.9941</v>
       </c>
     </row>
     <row r="7">
@@ -686,33 +528,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>36.48</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15</v>
-      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L7" t="n">
-        <v>273.47</v>
-      </c>
-      <c r="M7" t="n">
-        <v>44.01</v>
       </c>
     </row>
     <row r="8">
@@ -721,49 +545,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>62759.99</v>
-      </c>
-      <c r="C8" t="n">
-        <v>63508.29</v>
-      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>125844.72</v>
-      </c>
-      <c r="H8" t="n">
-        <v>127496.49</v>
-      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>630519.08</v>
-      </c>
-      <c r="M8" t="n">
-        <v>638473.9399999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -773,29 +562,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>BHD</t>
-        </is>
-      </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>BHD</t>
-        </is>
-      </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>BHD</t>
         </is>
       </c>
     </row>
@@ -805,29 +579,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -837,24 +596,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>200</v>
-      </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>400</v>
-      </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L13" t="n">
-        <v>2000</v>
       </c>
     </row>
     <row r="14">
@@ -863,29 +613,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:59</t>
-        </is>
-      </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:59</t>
-        </is>
-      </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:00</t>
         </is>
       </c>
     </row>
@@ -895,24 +630,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>311.422</v>
-      </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>311.422</v>
-      </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L15" t="n">
-        <v>311.422</v>
       </c>
     </row>
     <row r="16">
@@ -921,24 +647,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L16" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -947,55 +664,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>61972.98</v>
-      </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>124101.67</v>
-      </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>621909.73</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -1005,44 +681,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>GBP</t>
         </is>
       </c>
     </row>
@@ -1052,44 +698,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -1099,33 +715,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>500</v>
-      </c>
-      <c r="C22" t="n">
-        <v>500</v>
-      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1000</v>
-      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L22" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="23">
@@ -1134,44 +732,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:37</t>
-        </is>
-      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:37</t>
-        </is>
-      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:38</t>
         </is>
       </c>
     </row>
@@ -1181,32 +749,16 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>149.456</v>
-      </c>
-      <c r="C24" t="n">
-        <v>151.8739</v>
-      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>149.456</v>
-      </c>
-      <c r="H24" t="n">
-        <v>151.8739</v>
-      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>149.456</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1214,33 +766,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L25" t="n">
-        <v>47.77</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1249,32 +783,16 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>73604.09</v>
-      </c>
-      <c r="C26" t="n">
-        <v>75936.95</v>
-      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>147664.02</v>
-      </c>
-      <c r="H26" t="n">
-        <v>151873.9</v>
-      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>740140.49</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1395,82 +913,20 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>MYR</t>
         </is>
       </c>
     </row>
@@ -1480,44 +936,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -1527,33 +953,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2500</v>
-      </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5000</v>
-      </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L40" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M40" t="n">
-        <v>25000</v>
       </c>
     </row>
     <row r="41">
@@ -1562,44 +970,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:15</t>
-        </is>
-      </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:16</t>
-        </is>
-      </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:16</t>
         </is>
       </c>
     </row>
@@ -1609,33 +987,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>24.8729</v>
-      </c>
-      <c r="C42" t="n">
-        <v>24.9651</v>
-      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>24.8729</v>
-      </c>
-      <c r="H42" t="n">
-        <v>24.9651</v>
-      </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L42" t="n">
-        <v>24.8729</v>
-      </c>
-      <c r="M42" t="n">
-        <v>24.9651</v>
       </c>
     </row>
     <row r="43">
@@ -1644,33 +1004,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="C43" t="n">
-        <v>10</v>
-      </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>75.06</v>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L43" t="n">
-        <v>301.11</v>
-      </c>
-      <c r="M43" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1679,33 +1021,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>61018.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>62163.1</v>
-      </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>122497.54</v>
-      </c>
-      <c r="H44" t="n">
-        <v>124575.85</v>
-      </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L44" t="n">
-        <v>614333.02</v>
-      </c>
-      <c r="M44" t="n">
-        <v>623877.85</v>
       </c>
     </row>
     <row r="47">
@@ -1827,52 +1151,20 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>QAR</t>
-        </is>
-      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>QAR</t>
-        </is>
-      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>QAR</t>
         </is>
       </c>
     </row>
@@ -1882,29 +1174,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -1914,24 +1191,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>1500</v>
-      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>3000</v>
-      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L58" t="n">
-        <v>15000</v>
       </c>
     </row>
     <row r="59">
@@ -1940,29 +1208,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:23</t>
-        </is>
-      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:23</t>
-        </is>
-      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:24</t>
         </is>
       </c>
     </row>
@@ -1972,24 +1225,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>32.228</v>
-      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>32.228</v>
-      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L60" t="n">
-        <v>32.228</v>
       </c>
     </row>
     <row r="61">
@@ -1998,24 +1242,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>20</v>
-      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>20</v>
-      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L61" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -2024,40 +1259,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>47697.44</v>
-      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>96039.44</v>
-      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>482775.44</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -2067,29 +1276,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
       <c r="K65" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>SAR</t>
         </is>
       </c>
     </row>
@@ -2099,29 +1293,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="K66" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -2131,24 +1310,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>2000</v>
-      </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G67" t="n">
-        <v>4000</v>
-      </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L67" t="n">
-        <v>20000</v>
       </c>
     </row>
     <row r="68">
@@ -2157,29 +1327,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:27</t>
-        </is>
-      </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:28</t>
-        </is>
-      </c>
       <c r="K68" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:28</t>
         </is>
       </c>
     </row>
@@ -2189,24 +1344,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>31.0496</v>
-      </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G69" t="n">
-        <v>31.0496</v>
-      </c>
       <c r="K69" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L69" t="n">
-        <v>31.0496</v>
       </c>
     </row>
     <row r="70">
@@ -2215,24 +1361,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
       <c r="K70" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2241,55 +1378,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>62099.2</v>
-      </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G71" t="n">
-        <v>124198.4</v>
-      </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>620992</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G73" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H73" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L73" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M73" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -2299,44 +1395,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>USD</t>
         </is>
       </c>
     </row>
@@ -2346,44 +1412,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="K75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -2393,33 +1429,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>500</v>
-      </c>
-      <c r="C76" t="n">
-        <v>500</v>
-      </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G76" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1000</v>
-      </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L76" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M76" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="77">
@@ -2428,44 +1446,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:46</t>
-        </is>
-      </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:46</t>
-        </is>
-      </c>
       <c r="K77" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:47</t>
         </is>
       </c>
     </row>
@@ -2475,33 +1463,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>117.4</v>
-      </c>
-      <c r="C78" t="n">
-        <v>117.612</v>
-      </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G78" t="n">
-        <v>117.4</v>
-      </c>
-      <c r="H78" t="n">
-        <v>117.612</v>
-      </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L78" t="n">
-        <v>117.4</v>
-      </c>
-      <c r="M78" t="n">
-        <v>117.612</v>
       </c>
     </row>
     <row r="79">
@@ -2510,33 +1480,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2.99</v>
-      </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G79" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2.99</v>
-      </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L79" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="M79" t="n">
-        <v>2.99</v>
       </c>
     </row>
     <row r="80">
@@ -2545,33 +1497,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>57524.83</v>
-      </c>
-      <c r="C80" t="n">
-        <v>58454.34</v>
-      </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G80" t="n">
-        <v>115509.86</v>
-      </c>
-      <c r="H80" t="n">
-        <v>117260.34</v>
-      </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L80" t="n">
-        <v>579380.74</v>
-      </c>
-      <c r="M80" t="n">
-        <v>587708.34</v>
       </c>
     </row>
   </sheetData>
@@ -2585,7 +1519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M62"/>
+  <dimension ref="A2:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2593,82 +1527,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>AUD</t>
         </is>
       </c>
     </row>
@@ -2678,44 +1550,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -2725,33 +1567,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>700</v>
-      </c>
-      <c r="C4" t="n">
-        <v>700</v>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1500</v>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L4" t="n">
-        <v>7500</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7500</v>
       </c>
     </row>
     <row r="5">
@@ -2760,44 +1584,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:56</t>
-        </is>
-      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:56</t>
-        </is>
-      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:56</t>
         </is>
       </c>
     </row>
@@ -2807,33 +1601,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4.7868</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.7972</v>
-      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>4.7868</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.8069</v>
-      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L6" t="n">
-        <v>4.7868</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.8069</v>
       </c>
     </row>
     <row r="7">
@@ -2842,33 +1618,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L7" t="n">
-        <v>63.81</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2877,64 +1635,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>3291.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3358.04</v>
-      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>7091.98</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7210.35</v>
-      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>35595.55</v>
-      </c>
-      <c r="M8" t="n">
-        <v>36051.75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -2944,44 +1652,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>GBP</t>
         </is>
       </c>
     </row>
@@ -2991,44 +1669,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -3038,33 +1686,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>500</v>
-      </c>
-      <c r="C13" t="n">
-        <v>500</v>
-      </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1000</v>
-      </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L13" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="14">
@@ -3073,44 +1703,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:40</t>
-        </is>
-      </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:40</t>
-        </is>
-      </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:41</t>
         </is>
       </c>
     </row>
@@ -3120,33 +1720,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9.226800000000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9.1472</v>
-      </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>9.226800000000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9.1472</v>
-      </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L15" t="n">
-        <v>9.226800000000001</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9.1472</v>
       </c>
     </row>
     <row r="16">
@@ -3155,33 +1737,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L16" t="n">
-        <v>40.46</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3190,64 +1754,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>4545.86</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4573.6</v>
-      </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>9125.209999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9147.200000000001</v>
-      </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>45760.68</v>
-      </c>
-      <c r="M17" t="n">
-        <v>45736</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -3257,44 +1771,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>HKD</t>
         </is>
       </c>
     </row>
@@ -3304,44 +1788,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -3351,33 +1805,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>4000</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4000</v>
-      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>8000</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8000</v>
-      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L22" t="n">
-        <v>40000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>40000</v>
       </c>
     </row>
     <row r="23">
@@ -3386,44 +1822,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:05</t>
-        </is>
-      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:05</t>
-        </is>
-      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:06</t>
         </is>
       </c>
     </row>
@@ -3433,33 +1839,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.9276</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.9156</v>
-      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>0.9276</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.9156</v>
-      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L24" t="n">
-        <v>0.9276</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9156</v>
       </c>
     </row>
     <row r="25">
@@ -3468,33 +1856,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5</v>
-      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L25" t="n">
-        <v>351.16</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -3503,49 +1873,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>3643.83</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3657.82</v>
-      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>7325.44</v>
-      </c>
-      <c r="H26" t="n">
-        <v>7320.22</v>
-      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>36778.26</v>
-      </c>
-      <c r="M26" t="n">
-        <v>36619.42</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L28" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -3555,29 +1890,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>JPY</t>
-        </is>
-      </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>JPY</t>
-        </is>
-      </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>JPY</t>
         </is>
       </c>
     </row>
@@ -3587,29 +1907,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -3619,24 +1924,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>80000</v>
-      </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>150000</v>
-      </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L31" t="n">
-        <v>750000</v>
       </c>
     </row>
     <row r="32">
@@ -3645,29 +1941,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:07</t>
-        </is>
-      </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:07</t>
-        </is>
-      </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:08</t>
         </is>
       </c>
     </row>
@@ -3677,24 +1958,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0.0464</v>
-      </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>0.0464</v>
-      </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L33" t="n">
-        <v>0.0464</v>
       </c>
     </row>
     <row r="34">
@@ -3703,24 +1975,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>880</v>
-      </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>880</v>
-      </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1480</v>
       </c>
     </row>
     <row r="35">
@@ -3729,24 +1992,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>3671.17</v>
-      </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>6919.17</v>
-      </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L35" t="n">
-        <v>34731.33</v>
       </c>
     </row>
     <row r="38">
@@ -3868,82 +2122,20 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L46" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M46" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>SGD</t>
         </is>
       </c>
     </row>
@@ -3953,44 +2145,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -4000,33 +2162,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>500</v>
-      </c>
-      <c r="C49" t="n">
-        <v>500</v>
-      </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1000</v>
-      </c>
       <c r="K49" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L49" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="50">
@@ -4035,44 +2179,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:32</t>
-        </is>
-      </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:32</t>
-        </is>
-      </c>
       <c r="K50" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:33</t>
         </is>
       </c>
     </row>
@@ -4082,33 +2196,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>5.3578</v>
-      </c>
-      <c r="C51" t="n">
-        <v>5.361</v>
-      </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>5.3578</v>
-      </c>
-      <c r="H51" t="n">
-        <v>5.361</v>
-      </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L51" t="n">
-        <v>5.3578</v>
-      </c>
-      <c r="M51" t="n">
-        <v>5.361</v>
       </c>
     </row>
     <row r="52">
@@ -4117,33 +2213,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="K52" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L52" t="n">
-        <v>41.49</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4152,64 +2230,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>2627.04</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2680.5</v>
-      </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G53" t="n">
-        <v>5286.97</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5361</v>
-      </c>
       <c r="K53" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>26566.7</v>
-      </c>
-      <c r="M53" t="n">
-        <v>26805</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -4219,44 +2247,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>USD</t>
         </is>
       </c>
     </row>
@@ -4266,44 +2264,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -4313,33 +2281,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>500</v>
-      </c>
-      <c r="C58" t="n">
-        <v>500</v>
-      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1000</v>
-      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L58" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="59">
@@ -4348,44 +2298,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:49</t>
-        </is>
-      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:49</t>
-        </is>
-      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:50</t>
         </is>
       </c>
     </row>
@@ -4395,33 +2315,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>7.2478</v>
-      </c>
-      <c r="C60" t="n">
-        <v>7.0769</v>
-      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>7.2478</v>
-      </c>
-      <c r="H60" t="n">
-        <v>7.0769</v>
-      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L60" t="n">
-        <v>7.2478</v>
-      </c>
-      <c r="M60" t="n">
-        <v>7.0769</v>
       </c>
     </row>
     <row r="61">
@@ -4430,33 +2332,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.99</v>
-      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3.99</v>
-      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L61" t="n">
-        <v>57.94</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3.99</v>
       </c>
     </row>
     <row r="62">
@@ -4465,33 +2349,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>3550.62</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3510.21</v>
-      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>7136.11</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7048.66</v>
-      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L62" t="n">
-        <v>35819.06</v>
-      </c>
-      <c r="M62" t="n">
-        <v>35356.26</v>
       </c>
     </row>
   </sheetData>
@@ -4505,7 +2371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4519,29 +2385,14 @@
           <t>Wise</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -4556,37 +2407,22 @@
           <t>AED</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>AED</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>country_send</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>AED</t>
         </is>
@@ -4603,37 +2439,22 @@
           <t>INR</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>country_receive</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
@@ -4648,9 +2469,6 @@
       <c r="B4" t="n">
         <v>2000</v>
       </c>
-      <c r="C4" t="n">
-        <v>2000</v>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -4659,9 +2477,6 @@
       <c r="G4" t="n">
         <v>4000</v>
       </c>
-      <c r="H4" t="n">
-        <v>4000</v>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -4670,9 +2485,6 @@
       <c r="L4" t="n">
         <v>20000</v>
       </c>
-      <c r="M4" t="n">
-        <v>20000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4682,12 +2494,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:33</t>
+          <t>2024-06-20 13:41:37</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -4697,12 +2504,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:33</t>
+          <t>2024-06-20 13:41:37</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -4712,12 +2514,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:34</t>
+          <t>2024-06-20 13:41:37</t>
         </is>
       </c>
     </row>
@@ -4728,10 +2525,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.7404</v>
-      </c>
-      <c r="C6" t="n">
-        <v>22.6221</v>
+        <v>22.7662</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
@@ -4739,10 +2533,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>22.7404</v>
-      </c>
-      <c r="H6" t="n">
-        <v>22.6221</v>
+        <v>22.7662</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -4750,10 +2541,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>22.7404</v>
-      </c>
-      <c r="M6" t="n">
-        <v>22.6675</v>
+        <v>22.7662</v>
       </c>
     </row>
     <row r="7">
@@ -4765,9 +2553,6 @@
       <c r="B7" t="n">
         <v>21.25</v>
       </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
@@ -4776,9 +2561,6 @@
       <c r="G7" t="n">
         <v>40.08</v>
       </c>
-      <c r="H7" t="n">
-        <v>15</v>
-      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
@@ -4787,9 +2569,6 @@
       <c r="L7" t="n">
         <v>190.85</v>
       </c>
-      <c r="M7" t="n">
-        <v>44.01</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4798,10 +2577,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44997.57</v>
-      </c>
-      <c r="C8" t="n">
-        <v>44904.87</v>
+        <v>45048.6182</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
@@ -4809,10 +2585,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>90050.16</v>
-      </c>
-      <c r="H8" t="n">
-        <v>90149.07000000001</v>
+        <v>90152.33070000001</v>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
@@ -4820,39 +2593,21 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>450467.99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>452352.4</v>
+        <v>450979.0707</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M10" s="1" t="inlineStr">
         <is>
           <t>Western Union</t>
         </is>
@@ -4869,37 +2624,22 @@
           <t>AUD</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>country_send</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -4916,37 +2656,22 @@
           <t>INR</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>country_receive</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
@@ -4961,9 +2686,6 @@
       <c r="B13" t="n">
         <v>700</v>
       </c>
-      <c r="C13" t="n">
-        <v>700</v>
-      </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -4972,9 +2694,6 @@
       <c r="G13" t="n">
         <v>1500</v>
       </c>
-      <c r="H13" t="n">
-        <v>1500</v>
-      </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -4983,9 +2702,6 @@
       <c r="L13" t="n">
         <v>7500</v>
       </c>
-      <c r="M13" t="n">
-        <v>7500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4995,12 +2711,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:52</t>
+          <t>2024-06-20 13:41:06</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -5010,12 +2721,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:53</t>
+          <t>2024-06-20 13:41:22</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -5025,12 +2731,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:53</t>
+          <t>2024-06-20 13:41:37</t>
         </is>
       </c>
     </row>
@@ -5041,10 +2742,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55.1628</v>
-      </c>
-      <c r="C15" t="n">
-        <v>55.6881</v>
+        <v>55.9489</v>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
@@ -5052,10 +2750,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>55.1628</v>
-      </c>
-      <c r="H15" t="n">
-        <v>55.6881</v>
+        <v>55.9489</v>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
@@ -5063,10 +2758,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>55.1628</v>
-      </c>
-      <c r="M15" t="n">
-        <v>55.4773</v>
+        <v>55.6595</v>
       </c>
     </row>
     <row r="16">
@@ -5076,9 +2768,6 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="inlineStr">
@@ -5087,9 +2776,6 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -5098,9 +2784,6 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="M16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5111,10 +2794,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38329.32</v>
-      </c>
-      <c r="C17" t="n">
-        <v>38981.67</v>
+        <v>39164.23</v>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
@@ -5122,10 +2802,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>82222.36</v>
-      </c>
-      <c r="H17" t="n">
-        <v>83532.14999999999</v>
+        <v>83923.35000000001</v>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
@@ -5133,27 +2810,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>411420.16</v>
-      </c>
-      <c r="M17" t="n">
-        <v>416079.75</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
+        <v>417446.25</v>
       </c>
     </row>
     <row r="20">
@@ -5162,29 +2819,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BHD</t>
-        </is>
-      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>BHD</t>
-        </is>
-      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>BHD</t>
         </is>
       </c>
     </row>
@@ -5194,29 +2836,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -5226,24 +2853,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>200</v>
-      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>400</v>
-      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L22" t="n">
-        <v>2000</v>
       </c>
     </row>
     <row r="23">
@@ -5252,29 +2870,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:58</t>
-        </is>
-      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:58</t>
-        </is>
-      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:59</t>
         </is>
       </c>
     </row>
@@ -5284,24 +2887,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>221.3028</v>
-      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>221.3028</v>
-      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L24" t="n">
-        <v>221.3028</v>
       </c>
     </row>
     <row r="25">
@@ -5310,24 +2904,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>1.5</v>
-      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>1.5</v>
-      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -5336,50 +2921,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>43928.61</v>
-      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>88189.17</v>
-      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>442273.65</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L28" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
         </is>
       </c>
     </row>
@@ -5389,39 +2938,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>CAD</t>
         </is>
       </c>
     </row>
@@ -5431,39 +2955,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -5473,30 +2972,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>700</v>
-      </c>
-      <c r="C31" t="n">
-        <v>700</v>
-      </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1500</v>
-      </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L31" t="n">
-        <v>7500</v>
       </c>
     </row>
     <row r="32">
@@ -5505,39 +2989,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:00</t>
-        </is>
-      </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:01</t>
-        </is>
-      </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
         </is>
       </c>
     </row>
@@ -5547,30 +3006,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>60.6945</v>
-      </c>
-      <c r="C33" t="n">
-        <v>60.1671</v>
-      </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>60.6945</v>
-      </c>
-      <c r="H33" t="n">
-        <v>60.1671</v>
-      </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L33" t="n">
-        <v>60.6945</v>
       </c>
     </row>
     <row r="34">
@@ -5579,30 +3023,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="C34" t="n">
-        <v>10.5</v>
-      </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="H34" t="n">
-        <v>22.5</v>
-      </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L34" t="n">
-        <v>50.52</v>
       </c>
     </row>
     <row r="35">
@@ -5611,61 +3040,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>42087.39</v>
-      </c>
-      <c r="C35" t="n">
-        <v>41485.22</v>
-      </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>90329.2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>88896.89</v>
-      </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>452142.46</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -5675,44 +3057,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>GBP</t>
         </is>
       </c>
     </row>
@@ -5722,44 +3074,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -5769,33 +3091,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>500</v>
-      </c>
-      <c r="C40" t="n">
-        <v>500</v>
-      </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1000</v>
-      </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L40" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="41">
@@ -5804,44 +3108,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:42</t>
-        </is>
-      </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:43</t>
-        </is>
-      </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:43</t>
         </is>
       </c>
     </row>
@@ -5851,33 +3125,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>106.331</v>
-      </c>
-      <c r="C42" t="n">
-        <v>107.8764</v>
-      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>106.331</v>
-      </c>
-      <c r="H42" t="n">
-        <v>107.8764</v>
-      </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L42" t="n">
-        <v>106.331</v>
-      </c>
-      <c r="M42" t="n">
-        <v>106.6499</v>
       </c>
     </row>
     <row r="43">
@@ -5886,33 +3142,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L43" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5921,33 +3159,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>52814.61</v>
-      </c>
-      <c r="C44" t="n">
-        <v>53938.2</v>
-      </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>105705.77</v>
-      </c>
-      <c r="H44" t="n">
-        <v>107876.4</v>
-      </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L44" t="n">
-        <v>528827.66</v>
-      </c>
-      <c r="M44" t="n">
-        <v>533249.5</v>
       </c>
     </row>
     <row r="47">
@@ -6069,82 +3289,20 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>MYR</t>
         </is>
       </c>
     </row>
@@ -6154,44 +3312,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -6201,33 +3329,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2500</v>
-      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5000</v>
-      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L58" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M58" t="n">
-        <v>25000</v>
       </c>
     </row>
     <row r="59">
@@ -6236,44 +3346,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:13</t>
-        </is>
-      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:13</t>
-        </is>
-      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:15</t>
         </is>
       </c>
     </row>
@@ -6283,32 +3363,16 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>17.6956</v>
-      </c>
-      <c r="C60" t="n">
-        <v>17.7764</v>
-      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>17.6956</v>
-      </c>
-      <c r="H60" t="n">
-        <v>17.7764</v>
-      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>17.6956</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -6316,33 +3380,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>42.71</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L61" t="n">
-        <v>193.68</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6351,47 +3397,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>43817.14</v>
-      </c>
-      <c r="C62" t="n">
-        <v>44441</v>
-      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>87722.22</v>
-      </c>
-      <c r="H62" t="n">
-        <v>88882</v>
-      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>438962.72</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -6401,29 +3414,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>QAR</t>
-        </is>
-      </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>QAR</t>
-        </is>
-      </c>
       <c r="K65" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>QAR</t>
         </is>
       </c>
     </row>
@@ -6433,29 +3431,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K66" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -6465,24 +3448,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>1500</v>
-      </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G67" t="n">
-        <v>3000</v>
-      </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L67" t="n">
-        <v>15000</v>
       </c>
     </row>
     <row r="68">
@@ -6491,29 +3465,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:21</t>
-        </is>
-      </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:22</t>
-        </is>
-      </c>
       <c r="K68" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:22</t>
         </is>
       </c>
     </row>
@@ -6523,24 +3482,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>22.7875</v>
-      </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G69" t="n">
-        <v>22.7875</v>
-      </c>
       <c r="K69" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L69" t="n">
-        <v>22.7875</v>
       </c>
     </row>
     <row r="70">
@@ -6549,24 +3499,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>20</v>
-      </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G70" t="n">
-        <v>20</v>
-      </c>
       <c r="K70" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L70" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -6575,40 +3516,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>33725.5</v>
-      </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G71" t="n">
-        <v>67906.75</v>
-      </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>341356.75</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G73" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L73" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -6618,29 +3533,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>SAR</t>
         </is>
       </c>
     </row>
@@ -6650,29 +3550,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -6682,24 +3567,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>2000</v>
-      </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G76" t="n">
-        <v>4000</v>
-      </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L76" t="n">
-        <v>20000</v>
       </c>
     </row>
     <row r="77">
@@ -6708,29 +3584,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:26</t>
-        </is>
-      </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:26</t>
-        </is>
-      </c>
       <c r="K77" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:27</t>
         </is>
       </c>
     </row>
@@ -6740,24 +3601,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>21.9316</v>
-      </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G78" t="n">
-        <v>21.9316</v>
-      </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L78" t="n">
-        <v>21.9316</v>
       </c>
     </row>
     <row r="79">
@@ -6766,24 +3618,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -6792,55 +3635,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>43863.2</v>
-      </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G80" t="n">
-        <v>87726.39999999999</v>
-      </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>438632</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H82" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M82" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -6850,44 +3652,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>SGD</t>
         </is>
       </c>
     </row>
@@ -6897,44 +3669,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -6944,33 +3686,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>500</v>
-      </c>
-      <c r="C85" t="n">
-        <v>500</v>
-      </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G85" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1000</v>
-      </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L85" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M85" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="86">
@@ -6979,44 +3703,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:31</t>
-        </is>
-      </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:31</t>
-        </is>
-      </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:31</t>
         </is>
       </c>
     </row>
@@ -7026,31 +3720,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>61.7444</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
       <c r="F87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G87" t="n">
-        <v>61.7444</v>
-      </c>
-      <c r="H87" t="n">
-        <v>62.0652</v>
-      </c>
       <c r="K87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L87" t="n">
-        <v>61.7444</v>
-      </c>
-      <c r="M87" t="n">
-        <v>61.929</v>
       </c>
     </row>
     <row r="88">
@@ -7059,33 +3737,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G88" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="K88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L88" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -7094,62 +3754,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>30653.01</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
       <c r="F89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G89" t="n">
-        <v>61374.55</v>
-      </c>
-      <c r="H89" t="n">
-        <v>62065.2</v>
-      </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>307146.9</v>
-      </c>
-      <c r="M89" t="n">
-        <v>309645</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C91" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G91" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H91" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L91" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M91" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -7159,44 +3771,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="F92" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="K92" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>USD</t>
         </is>
       </c>
     </row>
@@ -7206,44 +3788,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F93" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K93" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -7253,33 +3805,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>500</v>
-      </c>
-      <c r="C94" t="n">
-        <v>500</v>
-      </c>
       <c r="F94" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G94" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1000</v>
-      </c>
       <c r="K94" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L94" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M94" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="95">
@@ -7288,44 +3822,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:44</t>
-        </is>
-      </c>
       <c r="F95" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:44</t>
-        </is>
-      </c>
       <c r="K95" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:45</t>
         </is>
       </c>
     </row>
@@ -7335,33 +3839,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>83.5273</v>
-      </c>
-      <c r="C96" t="n">
-        <v>83.0073</v>
-      </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G96" t="n">
-        <v>83.5273</v>
-      </c>
-      <c r="H96" t="n">
-        <v>83.0073</v>
-      </c>
       <c r="K96" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L96" t="n">
-        <v>83.5273</v>
-      </c>
-      <c r="M96" t="n">
-        <v>83.0073</v>
       </c>
     </row>
     <row r="97">
@@ -7370,33 +3856,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="C97" t="n">
-        <v>6.94</v>
-      </c>
       <c r="F97" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G97" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="H97" t="n">
-        <v>10.89</v>
-      </c>
       <c r="K97" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L97" t="n">
-        <v>43.29</v>
-      </c>
-      <c r="M97" t="n">
-        <v>42.49</v>
       </c>
     </row>
     <row r="98">
@@ -7405,33 +3873,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>41322.63</v>
-      </c>
-      <c r="C98" t="n">
-        <v>40927.58</v>
-      </c>
       <c r="F98" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G98" t="n">
-        <v>82733.78999999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>82103.35000000001</v>
-      </c>
       <c r="K98" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L98" t="n">
-        <v>414020.6</v>
-      </c>
-      <c r="M98" t="n">
-        <v>411509.52</v>
       </c>
     </row>
   </sheetData>
@@ -7445,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7459,29 +3909,14 @@
           <t>Wise</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -7496,37 +3931,22 @@
           <t>AED</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>AED</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>country_send</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>AED</t>
         </is>
@@ -7543,37 +3963,22 @@
           <t>PHP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>PHP</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>country_receive</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>PHP</t>
         </is>
@@ -7588,9 +3993,6 @@
       <c r="B4" t="n">
         <v>2000</v>
       </c>
-      <c r="C4" t="n">
-        <v>2000</v>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -7599,9 +4001,6 @@
       <c r="G4" t="n">
         <v>4000</v>
       </c>
-      <c r="H4" t="n">
-        <v>4000</v>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -7610,9 +4009,6 @@
       <c r="L4" t="n">
         <v>20000</v>
       </c>
-      <c r="M4" t="n">
-        <v>20000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -7622,12 +4018,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:36</t>
+          <t>2024-06-20 13:41:37</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -7637,12 +4028,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:36</t>
+          <t>2024-06-20 13:41:37</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -7652,12 +4038,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:36</t>
+          <t>2024-06-20 13:41:37</t>
         </is>
       </c>
     </row>
@@ -7668,10 +4049,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.9876</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15.9203</v>
+        <v>16.0287</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
@@ -7679,10 +4057,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>15.9876</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15.9203</v>
+        <v>16.0287</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -7690,10 +4065,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>15.9876</v>
-      </c>
-      <c r="M6" t="n">
-        <v>15.9203</v>
+        <v>16.0287</v>
       </c>
     </row>
     <row r="7">
@@ -7703,10 +4075,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.21</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
+        <v>24.2</v>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
@@ -7714,10 +4083,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>45.21</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15</v>
+        <v>45.2</v>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
@@ -7725,10 +4091,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>213.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>44.01</v>
+        <v>213.24</v>
       </c>
     </row>
     <row r="8">
@@ -7738,10 +4101,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31588.14</v>
-      </c>
-      <c r="C8" t="n">
-        <v>31601.8</v>
+        <v>31669.5055</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
@@ -7749,10 +4109,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>63227.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>63442.4</v>
+        <v>63390.3028</v>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
@@ -7760,42 +4117,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>316342.64</v>
-      </c>
-      <c r="M8" t="n">
-        <v>317705.35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
+        <v>317156.04</v>
       </c>
     </row>
     <row r="11">
@@ -7804,44 +4126,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>AUD</t>
         </is>
       </c>
     </row>
@@ -7851,44 +4143,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -7898,33 +4160,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>700</v>
-      </c>
-      <c r="C13" t="n">
-        <v>700</v>
-      </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1500</v>
-      </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L13" t="n">
-        <v>7500</v>
-      </c>
-      <c r="M13" t="n">
-        <v>7500</v>
       </c>
     </row>
     <row r="14">
@@ -7933,44 +4177,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:54</t>
-        </is>
-      </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:54</t>
-        </is>
-      </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:55</t>
         </is>
       </c>
     </row>
@@ -7980,33 +4194,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>38.7829</v>
-      </c>
-      <c r="C15" t="n">
-        <v>40.0706</v>
-      </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>38.7829</v>
-      </c>
-      <c r="H15" t="n">
-        <v>40.0706</v>
-      </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L15" t="n">
-        <v>38.7829</v>
-      </c>
-      <c r="M15" t="n">
-        <v>38.964</v>
       </c>
     </row>
     <row r="16">
@@ -8015,33 +4211,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L16" t="n">
-        <v>50.23</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8050,64 +4228,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>26904.47</v>
-      </c>
-      <c r="C17" t="n">
-        <v>28049.42</v>
-      </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>57730.29</v>
-      </c>
-      <c r="H17" t="n">
-        <v>60105.9</v>
-      </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>288923.68</v>
-      </c>
-      <c r="M17" t="n">
-        <v>292230</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -8117,44 +4245,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>CAD</t>
         </is>
       </c>
     </row>
@@ -8164,44 +4262,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -8211,33 +4279,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>700</v>
-      </c>
-      <c r="C22" t="n">
-        <v>700</v>
-      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>1500</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1500</v>
-      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L22" t="n">
-        <v>7500</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7500</v>
       </c>
     </row>
     <row r="23">
@@ -8246,44 +4296,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:02</t>
-        </is>
-      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:02</t>
-        </is>
-      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:03</t>
         </is>
       </c>
     </row>
@@ -8293,33 +4313,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>42.6775</v>
-      </c>
-      <c r="C24" t="n">
-        <v>41.9924</v>
-      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>42.6775</v>
-      </c>
-      <c r="H24" t="n">
-        <v>41.9924</v>
-      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L24" t="n">
-        <v>42.6775</v>
-      </c>
-      <c r="M24" t="n">
-        <v>42.2921</v>
       </c>
     </row>
     <row r="25">
@@ -8328,33 +4330,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.99</v>
-      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.99</v>
-      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L25" t="n">
-        <v>59</v>
-      </c>
-      <c r="M25" t="n">
-        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -8363,64 +4347,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>29546.91</v>
-      </c>
-      <c r="C26" t="n">
-        <v>29311.12</v>
-      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>63431.14</v>
-      </c>
-      <c r="H26" t="n">
-        <v>62905.04</v>
-      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>317563.28</v>
-      </c>
-      <c r="M26" t="n">
-        <v>312750.08</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L28" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M28" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -8430,44 +4364,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>GBP</t>
         </is>
       </c>
     </row>
@@ -8477,44 +4381,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -8524,33 +4398,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>500</v>
-      </c>
-      <c r="C31" t="n">
-        <v>500</v>
-      </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1000</v>
-      </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L31" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="32">
@@ -8559,44 +4415,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:39</t>
-        </is>
-      </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:39</t>
-        </is>
-      </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:40</t>
         </is>
       </c>
     </row>
@@ -8606,33 +4432,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>74.767</v>
-      </c>
-      <c r="C33" t="n">
-        <v>75.9234</v>
-      </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>74.767</v>
-      </c>
-      <c r="H33" t="n">
-        <v>75.9234</v>
-      </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L33" t="n">
-        <v>74.767</v>
-      </c>
-      <c r="M33" t="n">
-        <v>74.90470000000001</v>
       </c>
     </row>
     <row r="34">
@@ -8641,33 +4449,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L34" t="n">
-        <v>32.24</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8676,49 +4466,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>37080.69</v>
-      </c>
-      <c r="C35" t="n">
-        <v>37961.7</v>
-      </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>74230.17</v>
-      </c>
-      <c r="H35" t="n">
-        <v>75923.39999999999</v>
-      </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>371424.51</v>
-      </c>
-      <c r="M35" t="n">
-        <v>374523.5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -8728,29 +4483,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>JPY</t>
-        </is>
-      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>JPY</t>
-        </is>
-      </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>JPY</t>
         </is>
       </c>
     </row>
@@ -8760,29 +4500,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -8792,24 +4517,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>80000</v>
-      </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>150000</v>
-      </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L40" t="n">
-        <v>750000</v>
       </c>
     </row>
     <row r="41">
@@ -8818,29 +4534,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:06</t>
-        </is>
-      </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:06</t>
-        </is>
-      </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:07</t>
         </is>
       </c>
     </row>
@@ -8850,24 +4551,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0.3757</v>
-      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>0.3757</v>
-      </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L42" t="n">
-        <v>0.3757</v>
       </c>
     </row>
     <row r="43">
@@ -8876,24 +4568,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8902,24 +4585,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>30056</v>
-      </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>56355</v>
-      </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L44" t="n">
-        <v>281775</v>
       </c>
     </row>
     <row r="47">
@@ -9041,82 +4715,20 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>MYR</t>
         </is>
       </c>
     </row>
@@ -9126,44 +4738,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -9173,33 +4755,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2500</v>
-      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5000</v>
-      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L58" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M58" t="n">
-        <v>25000</v>
       </c>
     </row>
     <row r="59">
@@ -9208,44 +4772,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:17</t>
-        </is>
-      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:17</t>
-        </is>
-      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:18</t>
         </is>
       </c>
     </row>
@@ -9255,33 +4789,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>12.4411</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12.4851</v>
-      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>12.4411</v>
-      </c>
-      <c r="H60" t="n">
-        <v>12.4851</v>
-      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L60" t="n">
-        <v>12.4411</v>
-      </c>
-      <c r="M60" t="n">
-        <v>12.4851</v>
       </c>
     </row>
     <row r="61">
@@ -9290,33 +4806,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>27.86</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>49.44</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L61" t="n">
-        <v>222.07</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -9325,49 +4823,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>30756.14</v>
-      </c>
-      <c r="C62" t="n">
-        <v>31212.75</v>
-      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>61590.41</v>
-      </c>
-      <c r="H62" t="n">
-        <v>62425.5</v>
-      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>308264.7</v>
-      </c>
-      <c r="M62" t="n">
-        <v>312127.5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -9377,29 +4840,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>QAR</t>
-        </is>
-      </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>QAR</t>
-        </is>
-      </c>
       <c r="K65" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>QAR</t>
         </is>
       </c>
     </row>
@@ -9409,29 +4857,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K66" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -9441,24 +4874,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>1500</v>
-      </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G67" t="n">
-        <v>3000</v>
-      </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L67" t="n">
-        <v>15000</v>
       </c>
     </row>
     <row r="68">
@@ -9467,29 +4891,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:24</t>
-        </is>
-      </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:25</t>
-        </is>
-      </c>
       <c r="K68" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:26</t>
         </is>
       </c>
     </row>
@@ -9499,24 +4908,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>15.9725</v>
-      </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G69" t="n">
-        <v>15.9725</v>
-      </c>
       <c r="K69" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L69" t="n">
-        <v>15.9725</v>
       </c>
     </row>
     <row r="70">
@@ -9525,24 +4925,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>20</v>
-      </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G70" t="n">
-        <v>20</v>
-      </c>
       <c r="K70" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L70" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -9551,40 +4942,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>23639.3</v>
-      </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G71" t="n">
-        <v>47598.05</v>
-      </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>239268.05</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G73" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L73" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -9594,29 +4959,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>SAR</t>
         </is>
       </c>
     </row>
@@ -9626,29 +4976,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -9658,24 +4993,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>2000</v>
-      </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G76" t="n">
-        <v>4000</v>
-      </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L76" t="n">
-        <v>20000</v>
       </c>
     </row>
     <row r="77">
@@ -9684,29 +5010,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:29</t>
-        </is>
-      </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:29</t>
-        </is>
-      </c>
       <c r="K77" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:29</t>
         </is>
       </c>
     </row>
@@ -9716,24 +5027,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>15.5128</v>
-      </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G78" t="n">
-        <v>15.5128</v>
-      </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L78" t="n">
-        <v>15.5128</v>
       </c>
     </row>
     <row r="79">
@@ -9742,24 +5044,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -9768,55 +5061,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>31025.6</v>
-      </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G80" t="n">
-        <v>62051.2</v>
-      </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>310256</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="H82" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="M82" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -9826,44 +5078,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>USD</t>
         </is>
       </c>
     </row>
@@ -9873,44 +5095,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -9920,33 +5112,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>500</v>
-      </c>
-      <c r="C85" t="n">
-        <v>500</v>
-      </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G85" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1000</v>
-      </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L85" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M85" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="86">
@@ -9955,44 +5129,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:47</t>
-        </is>
-      </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:48</t>
-        </is>
-      </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>06/11/2024 02:22</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:48</t>
         </is>
       </c>
     </row>
@@ -10002,33 +5146,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>58.7215</v>
-      </c>
-      <c r="C87" t="n">
-        <v>57.4851</v>
-      </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G87" t="n">
-        <v>58.7215</v>
-      </c>
-      <c r="H87" t="n">
-        <v>57.4851</v>
-      </c>
       <c r="K87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L87" t="n">
-        <v>58.7215</v>
-      </c>
-      <c r="M87" t="n">
-        <v>57.4851</v>
       </c>
     </row>
     <row r="88">
@@ -10037,33 +5163,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C88" t="n">
-        <v>3.99</v>
-      </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G88" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3.99</v>
-      </c>
       <c r="K88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L88" t="n">
-        <v>48.97</v>
-      </c>
-      <c r="M88" t="n">
-        <v>3.99</v>
       </c>
     </row>
     <row r="89">
@@ -10072,33 +5180,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>29003.72</v>
-      </c>
-      <c r="C89" t="n">
-        <v>28513.18</v>
-      </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G89" t="n">
-        <v>58084.96</v>
-      </c>
-      <c r="H89" t="n">
-        <v>57255.73</v>
-      </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L89" t="n">
-        <v>290731.91</v>
-      </c>
-      <c r="M89" t="n">
-        <v>287196.13</v>
       </c>
     </row>
   </sheetData>
@@ -10112,7 +5202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10120,52 +5210,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>AUD</t>
         </is>
       </c>
     </row>
@@ -10175,29 +5233,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>VND</t>
         </is>
       </c>
     </row>
@@ -10207,24 +5250,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>700</v>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1500</v>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L4" t="n">
-        <v>7500</v>
       </c>
     </row>
     <row r="5">
@@ -10233,29 +5267,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:57</t>
-        </is>
-      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:57</t>
-        </is>
-      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>6/6/2024 21:58</t>
         </is>
       </c>
     </row>
@@ -10265,24 +5284,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>16739.21</v>
-      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>16773.02</v>
-      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L6" t="n">
-        <v>16773.02</v>
       </c>
     </row>
     <row r="7">
@@ -10291,24 +5301,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -10317,40 +5318,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>11717447</v>
-      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>25159530</v>
-      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>125797650</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -10360,29 +5335,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>CAD</t>
         </is>
       </c>
     </row>
@@ -10392,29 +5352,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>VND</t>
         </is>
       </c>
     </row>
@@ -10424,24 +5369,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>700</v>
-      </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1500</v>
-      </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L13" t="n">
-        <v>7500</v>
       </c>
     </row>
     <row r="14">
@@ -10450,29 +5386,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:03</t>
-        </is>
-      </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:04</t>
-        </is>
-      </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:04</t>
         </is>
       </c>
     </row>
@@ -10482,24 +5403,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>18092.43</v>
-      </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>18092.43</v>
-      </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L15" t="n">
-        <v>17555.98</v>
       </c>
     </row>
     <row r="16">
@@ -10508,24 +5420,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1.99</v>
-      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>1.99</v>
-      </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L16" t="n">
-        <v>375</v>
       </c>
     </row>
     <row r="17">
@@ -10534,24 +5437,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>12628697.06</v>
-      </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>27102641.06</v>
-      </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L17" t="n">
-        <v>125086357.5</v>
       </c>
     </row>
     <row r="20">
@@ -10673,37 +5567,15 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>GBP</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
@@ -10718,19 +5590,9 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>VND</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
@@ -10745,16 +5607,10 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>500</v>
-      </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="G31" t="n">
-        <v>1000</v>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
@@ -10768,19 +5624,9 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:41</t>
-        </is>
-      </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:42</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -10795,16 +5641,10 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>32205.56</v>
-      </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="G33" t="n">
-        <v>32205.56</v>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
@@ -10818,16 +5658,10 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
@@ -10841,37 +5675,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>16102780</v>
-      </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>32205560</v>
-      </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -10881,29 +5692,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>JPY</t>
-        </is>
-      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>JPY</t>
-        </is>
-      </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>JPY</t>
         </is>
       </c>
     </row>
@@ -10913,29 +5709,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>VND</t>
         </is>
       </c>
     </row>
@@ -10945,24 +5726,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>80000</v>
-      </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>150000</v>
-      </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L40" t="n">
-        <v>750000</v>
       </c>
     </row>
     <row r="41">
@@ -10971,29 +5743,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:08</t>
-        </is>
-      </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:09</t>
-        </is>
-      </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:09</t>
         </is>
       </c>
     </row>
@@ -11003,24 +5760,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>161.7144</v>
-      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>161.7144</v>
-      </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L42" t="n">
-        <v>161.7144</v>
       </c>
     </row>
     <row r="43">
@@ -11029,24 +5777,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>880</v>
-      </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>880</v>
-      </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1480</v>
       </c>
     </row>
     <row r="44">
@@ -11055,24 +5794,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>12794843.33</v>
-      </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>24114851.33</v>
-      </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L44" t="n">
-        <v>121046462.69</v>
       </c>
     </row>
     <row r="47">
@@ -11194,52 +5924,20 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L55" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>MYR</t>
         </is>
       </c>
     </row>
@@ -11249,29 +5947,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>VND</t>
         </is>
       </c>
     </row>
@@ -11281,24 +5964,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>2500</v>
-      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>5000</v>
-      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L58" t="n">
-        <v>25000</v>
       </c>
     </row>
     <row r="59">
@@ -11307,29 +5981,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:19</t>
-        </is>
-      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:19</t>
-        </is>
-      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:20</t>
         </is>
       </c>
     </row>
@@ -11339,24 +5998,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>5385.35</v>
-      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>5385.35</v>
-      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L60" t="n">
-        <v>5385.35</v>
       </c>
     </row>
     <row r="61">
@@ -11365,24 +6015,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>5</v>
-      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>5</v>
-      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L61" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -11391,40 +6032,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>13436448.25</v>
-      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>26899823.25</v>
-      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>134606823.25</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L64" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -11434,29 +6049,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="K65" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>USD</t>
         </is>
       </c>
     </row>
@@ -11466,29 +6066,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="K66" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>VND</t>
         </is>
       </c>
     </row>
@@ -11498,24 +6083,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>500</v>
-      </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G67" t="n">
-        <v>1000</v>
-      </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L67" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="68">
@@ -11524,29 +6100,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:50</t>
-        </is>
-      </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:51</t>
-        </is>
-      </c>
       <c r="K68" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>6/6/2024 22:51</t>
         </is>
       </c>
     </row>
@@ -11556,24 +6117,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>25070.04</v>
-      </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G69" t="n">
-        <v>25070.04</v>
-      </c>
       <c r="K69" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L69" t="n">
-        <v>25070.04</v>
       </c>
     </row>
     <row r="70">
@@ -11582,24 +6134,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>2.99</v>
-      </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G70" t="n">
-        <v>2.99</v>
-      </c>
       <c r="K70" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L70" t="n">
-        <v>2.99</v>
       </c>
     </row>
     <row r="71">
@@ -11608,24 +6151,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>12460060.58</v>
-      </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G71" t="n">
-        <v>24995080.58</v>
-      </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L71" t="n">
-        <v>125275240.58</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K80"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,20 +437,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AED</t>
         </is>
       </c>
     </row>
@@ -460,14 +492,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -477,15 +524,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>2000</v>
+      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>4000</v>
+      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L4" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="5">
@@ -494,14 +550,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -511,15 +582,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>31.9902</v>
+      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>31.9902</v>
+      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L6" t="n">
+        <v>31.9902</v>
       </c>
     </row>
     <row r="7">
@@ -528,15 +608,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>36.47</v>
+      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>62.79</v>
+      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L7" t="n">
+        <v>273.46</v>
       </c>
     </row>
     <row r="8">
@@ -545,15 +634,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>62813.7174</v>
+      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>125952.1353</v>
+      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L8" t="n">
+        <v>631055.9599</v>
       </c>
     </row>
     <row r="11">
@@ -675,20 +773,52 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>GBP</t>
         </is>
       </c>
     </row>
@@ -698,14 +828,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -715,15 +860,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>500</v>
+      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L22" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="23">
@@ -732,14 +886,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -749,15 +918,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>149.008</v>
+      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>149.008</v>
+      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L24" t="n">
+        <v>149.008</v>
       </c>
     </row>
     <row r="25">
@@ -766,15 +944,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>7.42</v>
+      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L25" t="n">
+        <v>46.78</v>
       </c>
     </row>
     <row r="26">
@@ -783,15 +970,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>73398.3606</v>
+      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>147249.7056</v>
+      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L26" t="n">
+        <v>738069.4057999999</v>
       </c>
     </row>
     <row r="29">
@@ -913,20 +1109,52 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>MYR</t>
         </is>
       </c>
     </row>
@@ -936,14 +1164,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -953,15 +1196,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>2500</v>
+      </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G40" t="n">
+        <v>5000</v>
+      </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L40" t="n">
+        <v>25000</v>
       </c>
     </row>
     <row r="41">
@@ -970,14 +1222,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -987,15 +1254,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>24.9469</v>
+      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G42" t="n">
+        <v>24.9469</v>
+      </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L42" t="n">
+        <v>24.9469</v>
       </c>
     </row>
     <row r="43">
@@ -1004,15 +1280,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>45.58</v>
+      </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G43" t="n">
+        <v>72.62</v>
+      </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L43" t="n">
+        <v>288.86</v>
       </c>
     </row>
     <row r="44">
@@ -1021,15 +1306,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>61230.1703</v>
+      </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G44" t="n">
+        <v>122922.8561</v>
+      </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L44" t="n">
+        <v>616466.3385</v>
       </c>
     </row>
     <row r="47">
@@ -1389,20 +1683,52 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L73" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>USD</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1738,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="K75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -1429,15 +1770,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B76" t="n">
+        <v>500</v>
+      </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G76" t="n">
+        <v>1000</v>
+      </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L76" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="77">
@@ -1446,14 +1796,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K77" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -1463,15 +1828,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B78" t="n">
+        <v>117.5</v>
+      </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G78" t="n">
+        <v>117.5</v>
+      </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L78" t="n">
+        <v>117.5</v>
       </c>
     </row>
     <row r="79">
@@ -1480,15 +1854,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B79" t="n">
+        <v>9.710000000000001</v>
+      </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G79" t="n">
+        <v>15.51</v>
+      </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L79" t="n">
+        <v>61.96</v>
       </c>
     </row>
     <row r="80">
@@ -1497,15 +1880,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B80" t="n">
+        <v>57609.075</v>
+      </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G80" t="n">
+        <v>115677.575</v>
+      </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L80" t="n">
+        <v>580219.7</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K62"/>
+  <dimension ref="A2:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1646,20 +2038,52 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>GBP</t>
         </is>
       </c>
     </row>
@@ -1669,14 +2093,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -1686,15 +2125,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>500</v>
+      </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>1000</v>
+      </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L13" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="14">
@@ -1703,14 +2151,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -1720,15 +2183,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>9.2073</v>
+      </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>9.2073</v>
+      </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L15" t="n">
+        <v>9.2073</v>
       </c>
     </row>
     <row r="16">
@@ -1737,15 +2209,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>7.22</v>
+      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>10.81</v>
+      </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L16" t="n">
+        <v>39.47</v>
       </c>
     </row>
     <row r="17">
@@ -1754,14 +2235,40 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>4537.1733</v>
+      </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>9107.7691</v>
+      </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>45673.0879</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
         </is>
       </c>
     </row>
@@ -1771,14 +2278,29 @@
           <t>country_send</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>HKD</t>
         </is>
       </c>
     </row>
@@ -1788,14 +2310,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -1805,15 +2342,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>4000</v>
+      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>8000</v>
+      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L22" t="n">
+        <v>40000</v>
       </c>
     </row>
     <row r="23">
@@ -1822,14 +2368,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -1839,15 +2400,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>0.9304</v>
+      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>0.9304</v>
+      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9304</v>
       </c>
     </row>
     <row r="25">
@@ -1856,15 +2426,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>68.52</v>
+      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>96.39</v>
+      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L25" t="n">
+        <v>319.43</v>
       </c>
     </row>
     <row r="26">
@@ -1873,15 +2452,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>3657.849</v>
+      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>7353.5187</v>
+      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L26" t="n">
+        <v>36918.8023</v>
       </c>
     </row>
     <row r="29">
@@ -2122,20 +2710,52 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>SGD</t>
         </is>
       </c>
     </row>
@@ -2145,14 +2765,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -2162,15 +2797,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>500</v>
+      </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G49" t="n">
+        <v>1000</v>
+      </c>
       <c r="K49" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L49" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="50">
@@ -2179,14 +2823,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K50" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -2196,15 +2855,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>5.3652</v>
+      </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G51" t="n">
+        <v>5.3652</v>
+      </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L51" t="n">
+        <v>5.3652</v>
       </c>
     </row>
     <row r="52">
@@ -2213,15 +2881,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B52" t="n">
+        <v>9.390000000000001</v>
+      </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G52" t="n">
+        <v>12.63</v>
+      </c>
       <c r="K52" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L52" t="n">
+        <v>38.52</v>
       </c>
     </row>
     <row r="53">
@@ -2230,14 +2907,40 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B53" t="n">
+        <v>2632.2208</v>
+      </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G53" t="n">
+        <v>5297.4375</v>
+      </c>
       <c r="K53" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>26619.3325</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
         </is>
       </c>
     </row>
@@ -2247,14 +2950,29 @@
           <t>country_send</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>USD</t>
         </is>
       </c>
     </row>
@@ -2264,14 +2982,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -2281,15 +3014,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B58" t="n">
+        <v>500</v>
+      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G58" t="n">
+        <v>1000</v>
+      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L58" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="59">
@@ -2298,14 +3040,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -2315,15 +3072,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B60" t="n">
+        <v>7.2605</v>
+      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G60" t="n">
+        <v>7.2605</v>
+      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L60" t="n">
+        <v>7.2605</v>
       </c>
     </row>
     <row r="61">
@@ -2332,15 +3098,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B61" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v>14.81</v>
+      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L61" t="n">
+        <v>54.97</v>
       </c>
     </row>
     <row r="62">
@@ -2349,15 +3124,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B62" t="n">
+        <v>3559.0971</v>
+      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G62" t="n">
+        <v>7152.972</v>
+      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L62" t="n">
+        <v>35903.3903</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +3278,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-20 13:41:37</t>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -2504,7 +3288,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-20 13:41:37</t>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -2514,7 +3298,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-20 13:41:37</t>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -2525,7 +3309,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.7662</v>
+        <v>22.7684</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
@@ -2533,7 +3317,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>22.7662</v>
+        <v>22.7684</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -2541,7 +3325,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>22.7662</v>
+        <v>22.7684</v>
       </c>
     </row>
     <row r="7">
@@ -2577,7 +3361,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45048.6182</v>
+        <v>45052.9715</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
@@ -2585,7 +3369,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>90152.33070000001</v>
+        <v>90161.0425</v>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
@@ -2593,7 +3377,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>450979.0707</v>
+        <v>451022.6509</v>
       </c>
     </row>
     <row r="10">
@@ -2711,7 +3495,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-20 13:41:06</t>
+          <t>2024-06-20 14:39:43</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -2721,7 +3505,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-20 13:41:22</t>
+          <t>2024-06-20 14:39:59</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2731,7 +3515,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-20 13:41:37</t>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -2932,20 +3716,52 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>CAD</t>
         </is>
       </c>
     </row>
@@ -2955,14 +3771,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>INR</t>
         </is>
       </c>
     </row>
@@ -2972,15 +3803,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>700</v>
+      </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>1500</v>
+      </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L31" t="n">
+        <v>7500</v>
       </c>
     </row>
     <row r="32">
@@ -2989,14 +3829,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -3006,15 +3861,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>61.0804</v>
+      </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>61.0804</v>
+      </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L33" t="n">
+        <v>61.0804</v>
       </c>
     </row>
     <row r="34">
@@ -3023,15 +3887,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>6.36</v>
+      </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L34" t="n">
+        <v>48.3</v>
       </c>
     </row>
     <row r="35">
@@ -3040,14 +3913,40 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>42367.8087</v>
+      </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>90930.3915</v>
+      </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>455152.8167</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
         </is>
       </c>
     </row>
@@ -3057,14 +3956,29 @@
           <t>country_send</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>GBP</t>
         </is>
       </c>
     </row>
@@ -3074,14 +3988,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>INR</t>
         </is>
       </c>
     </row>
@@ -3091,15 +4020,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>500</v>
+      </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G40" t="n">
+        <v>1000</v>
+      </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L40" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="41">
@@ -3108,14 +4046,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -3125,15 +4078,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>106.053</v>
+      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G42" t="n">
+        <v>106.053</v>
+      </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L42" t="n">
+        <v>106.053</v>
       </c>
     </row>
     <row r="43">
@@ -3142,15 +4104,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>3.2</v>
+      </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G43" t="n">
+        <v>5.69</v>
+      </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L43" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="44">
@@ -3159,15 +4130,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>52687.1304</v>
+      </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G44" t="n">
+        <v>105449.5584</v>
+      </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L44" t="n">
+        <v>527550.0432</v>
       </c>
     </row>
     <row r="47">
@@ -3289,20 +4269,52 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>MYR</t>
         </is>
       </c>
     </row>
@@ -3312,14 +4324,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>INR</t>
         </is>
       </c>
     </row>
@@ -3329,15 +4356,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B58" t="n">
+        <v>2500</v>
+      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G58" t="n">
+        <v>5000</v>
+      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L58" t="n">
+        <v>25000</v>
       </c>
     </row>
     <row r="59">
@@ -3346,14 +4382,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -3363,15 +4414,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B60" t="n">
+        <v>17.7555</v>
+      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G60" t="n">
+        <v>17.7555</v>
+      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L60" t="n">
+        <v>17.7555</v>
       </c>
     </row>
     <row r="61">
@@ -3380,15 +4440,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B61" t="n">
+        <v>22.61</v>
+      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v>40.24</v>
+      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L61" t="n">
+        <v>181.35</v>
       </c>
     </row>
     <row r="62">
@@ -3397,15 +4466,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B62" t="n">
+        <v>43987.2981</v>
+      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G62" t="n">
+        <v>88063.0187</v>
+      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L62" t="n">
+        <v>440667.5401</v>
       </c>
     </row>
     <row r="65">
@@ -3646,20 +4724,52 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>SGD</t>
         </is>
       </c>
     </row>
@@ -3669,14 +4779,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>INR</t>
         </is>
       </c>
     </row>
@@ -3686,15 +4811,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B85" t="n">
+        <v>500</v>
+      </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G85" t="n">
+        <v>1000</v>
+      </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L85" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="86">
@@ -3703,14 +4837,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -3720,15 +4869,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B87" t="n">
+        <v>61.798</v>
+      </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G87" t="n">
+        <v>61.798</v>
+      </c>
       <c r="K87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L87" t="n">
+        <v>61.798</v>
       </c>
     </row>
     <row r="88">
@@ -3737,15 +4895,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B88" t="n">
+        <v>3.26</v>
+      </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G88" t="n">
+        <v>5.4</v>
+      </c>
       <c r="K88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L88" t="n">
+        <v>22.54</v>
       </c>
     </row>
     <row r="89">
@@ -3754,14 +4921,40 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B89" t="n">
+        <v>30697.5385</v>
+      </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G89" t="n">
+        <v>61464.2908</v>
+      </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>307597.0731</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G91" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L91" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
         </is>
       </c>
     </row>
@@ -3771,14 +4964,29 @@
           <t>country_send</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="F92" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="K92" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>USD</t>
         </is>
       </c>
     </row>
@@ -3788,14 +4996,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="F93" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="K93" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>INR</t>
         </is>
       </c>
     </row>
@@ -3805,15 +5028,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B94" t="n">
+        <v>500</v>
+      </c>
       <c r="F94" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G94" t="n">
+        <v>1000</v>
+      </c>
       <c r="K94" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L94" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="95">
@@ -3822,14 +5054,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F95" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K95" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -3839,15 +5086,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B96" t="n">
+        <v>83.62820000000001</v>
+      </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G96" t="n">
+        <v>83.62820000000001</v>
+      </c>
       <c r="K96" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L96" t="n">
+        <v>83.62820000000001</v>
       </c>
     </row>
     <row r="97">
@@ -3856,15 +5112,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B97" t="n">
+        <v>4.99</v>
+      </c>
       <c r="F97" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G97" t="n">
+        <v>8.91</v>
+      </c>
       <c r="K97" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L97" t="n">
+        <v>40.33</v>
       </c>
     </row>
     <row r="98">
@@ -3873,15 +5138,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B98" t="n">
+        <v>41396.7953</v>
+      </c>
       <c r="F98" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G98" t="n">
+        <v>82883.0727</v>
+      </c>
       <c r="K98" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L98" t="n">
+        <v>414768.2747</v>
       </c>
     </row>
   </sheetData>
@@ -4018,7 +5292,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-20 13:41:37</t>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -4028,7 +5302,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-20 13:41:37</t>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -4038,7 +5312,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-20 13:41:37</t>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -4049,7 +5323,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.0287</v>
+        <v>16.0272</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
@@ -4057,7 +5331,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>16.0287</v>
+        <v>16.0272</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -4065,7 +5339,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>16.0287</v>
+        <v>16.0272</v>
       </c>
     </row>
     <row r="7">
@@ -4101,7 +5375,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31669.5055</v>
+        <v>31666.5418</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
@@ -4109,7 +5383,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>63390.3028</v>
+        <v>63384.3706</v>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
@@ -4117,7 +5391,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>317156.04</v>
+        <v>317126.3599</v>
       </c>
     </row>
     <row r="11">
@@ -4239,20 +5513,52 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>CAD</t>
         </is>
       </c>
     </row>
@@ -4262,14 +5568,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -4279,15 +5600,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>700</v>
+      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>1500</v>
+      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L22" t="n">
+        <v>7500</v>
       </c>
     </row>
     <row r="23">
@@ -4296,14 +5626,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -4313,15 +5658,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>42.9959</v>
+      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>42.9959</v>
+      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L24" t="n">
+        <v>42.9959</v>
       </c>
     </row>
     <row r="25">
@@ -4330,15 +5684,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>7.46</v>
+      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>13.26</v>
+      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L25" t="n">
+        <v>56.78</v>
       </c>
     </row>
     <row r="26">
@@ -4347,14 +5710,40 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>29776.3806</v>
+      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>63923.7244</v>
+      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>320027.9428</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
         </is>
       </c>
     </row>
@@ -4364,14 +5753,29 @@
           <t>country_send</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>GBP</t>
         </is>
       </c>
     </row>
@@ -4381,14 +5785,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -4398,15 +5817,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>500</v>
+      </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L31" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="32">
@@ -4415,14 +5843,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -4432,15 +5875,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>74.65349999999999</v>
+      </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>74.65349999999999</v>
+      </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L33" t="n">
+        <v>74.65349999999999</v>
       </c>
     </row>
     <row r="34">
@@ -4449,15 +5901,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>3.95</v>
+      </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L34" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="35">
@@ -4466,15 +5927,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>37031.8687</v>
+      </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>74132.4186</v>
+      </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L35" t="n">
+        <v>370934.5781</v>
       </c>
     </row>
     <row r="38">
@@ -4715,20 +6185,52 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>MYR</t>
         </is>
       </c>
     </row>
@@ -4738,14 +6240,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -4755,15 +6272,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B58" t="n">
+        <v>2500</v>
+      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G58" t="n">
+        <v>5000</v>
+      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L58" t="n">
+        <v>25000</v>
       </c>
     </row>
     <row r="59">
@@ -4772,14 +6298,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -4789,15 +6330,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B60" t="n">
+        <v>12.4985</v>
+      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G60" t="n">
+        <v>12.4985</v>
+      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L60" t="n">
+        <v>12.4985</v>
       </c>
     </row>
     <row r="61">
@@ -4806,15 +6356,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B61" t="n">
+        <v>26.63</v>
+      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v>46.98</v>
+      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L61" t="n">
+        <v>209.77</v>
       </c>
     </row>
     <row r="62">
@@ -4823,15 +6382,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B62" t="n">
+        <v>30913.4149</v>
+      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G62" t="n">
+        <v>61905.3205</v>
+      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L62" t="n">
+        <v>309840.6897</v>
       </c>
     </row>
     <row r="65">
@@ -5072,20 +6640,52 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>USD</t>
         </is>
       </c>
     </row>
@@ -5095,14 +6695,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -5112,15 +6727,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B85" t="n">
+        <v>500</v>
+      </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G85" t="n">
+        <v>1000</v>
+      </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L85" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="86">
@@ -5129,14 +6753,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
+        </is>
+      </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:40:15</t>
         </is>
       </c>
     </row>
@@ -5146,15 +6785,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B87" t="n">
+        <v>58.868</v>
+      </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G87" t="n">
+        <v>58.868</v>
+      </c>
       <c r="K87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L87" t="n">
+        <v>58.868</v>
       </c>
     </row>
     <row r="88">
@@ -5163,15 +6811,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B88" t="n">
+        <v>5.79</v>
+      </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G88" t="n">
+        <v>10.25</v>
+      </c>
       <c r="K88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L88" t="n">
+        <v>46.01</v>
       </c>
     </row>
     <row r="89">
@@ -5180,15 +6837,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B89" t="n">
+        <v>29093.1543</v>
+      </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G89" t="n">
+        <v>58264.603</v>
+      </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L89" t="n">
+        <v>291631.4833</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.9902</v>
+        <v>31.9476</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>31.9902</v>
+        <v>31.9476</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>31.9902</v>
+        <v>31.9476</v>
       </c>
     </row>
     <row r="7">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.47</v>
+        <v>36.48</v>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>62.79</v>
+        <v>62.8</v>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>273.46</v>
+        <v>273.47</v>
       </c>
     </row>
     <row r="8">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62813.7174</v>
+        <v>62729.7516</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>125952.1353</v>
+        <v>125784.0907</v>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>631055.9599</v>
+        <v>630215.2898</v>
       </c>
     </row>
     <row r="11">
@@ -888,7 +888,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>149.008</v>
+        <v>148.365</v>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>149.008</v>
+        <v>148.365</v>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>149.008</v>
+        <v>148.365</v>
       </c>
     </row>
     <row r="25">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>73398.3606</v>
+        <v>73081.6317</v>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>147249.7056</v>
+        <v>146614.293</v>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>738069.4057999999</v>
+        <v>734884.4852999999</v>
       </c>
     </row>
     <row r="29">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>24.9469</v>
+        <v>24.9034</v>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>24.9469</v>
+        <v>24.9034</v>
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>24.9469</v>
+        <v>24.9034</v>
       </c>
     </row>
     <row r="43">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>61230.1703</v>
+        <v>61123.403</v>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>122922.8561</v>
+        <v>122708.5151</v>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>616466.3385</v>
+        <v>615391.4039</v>
       </c>
     </row>
     <row r="47">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K77" s="1" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>117.5</v>
+        <v>117.345</v>
       </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>117.5</v>
+        <v>117.345</v>
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>117.5</v>
+        <v>117.345</v>
       </c>
     </row>
     <row r="79">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>57609.075</v>
+        <v>57533.08</v>
       </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>115677.575</v>
+        <v>115524.979</v>
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>580219.7</v>
+        <v>579454.3038</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:L62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1919,20 +1919,82 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>AUD</t>
         </is>
       </c>
     </row>
@@ -1942,14 +2004,44 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -1959,15 +2051,33 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>700</v>
+      </c>
+      <c r="C4" t="n">
+        <v>700</v>
+      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1500</v>
+      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L4" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7500</v>
       </c>
     </row>
     <row r="5">
@@ -1976,14 +2086,44 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:25:06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:27:55</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:25:06</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:28:14</t>
+        </is>
+      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:25:06</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:28:34</t>
         </is>
       </c>
     </row>
@@ -1993,15 +2133,33 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>4.822</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.8012</v>
+      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>4.822</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.8108</v>
+      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L6" t="n">
+        <v>4.822</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.8108</v>
       </c>
     </row>
     <row r="7">
@@ -2010,15 +2168,33 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L7" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2027,15 +2203,33 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>3315.9447</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3360.84</v>
+      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>7144.3716</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7216.2</v>
+      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L8" t="n">
+        <v>35857.5493</v>
+      </c>
+      <c r="M8" t="n">
+        <v>36081</v>
       </c>
     </row>
     <row r="10">
@@ -2153,7 +2347,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -2163,7 +2357,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2173,7 +2367,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2378,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.2073</v>
+        <v>9.1805</v>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
@@ -2192,7 +2386,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>9.2073</v>
+        <v>9.1805</v>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
@@ -2200,7 +2394,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>9.2073</v>
+        <v>9.1805</v>
       </c>
     </row>
     <row r="16">
@@ -2210,7 +2404,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
@@ -2218,7 +2412,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>10.81</v>
+        <v>10.82</v>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
@@ -2226,7 +2420,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>39.47</v>
+        <v>39.48</v>
       </c>
     </row>
     <row r="17">
@@ -2236,7 +2430,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4537.1733</v>
+        <v>4523.875</v>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
@@ -2244,7 +2438,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>9107.7691</v>
+        <v>9081.166999999999</v>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
@@ -2252,7 +2446,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>45673.0879</v>
+        <v>45540.0539</v>
       </c>
     </row>
     <row r="19">
@@ -2370,7 +2564,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -2380,7 +2574,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -2390,7 +2584,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2595,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9304</v>
+        <v>0.9301</v>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
@@ -2409,7 +2603,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9304</v>
+        <v>0.9301</v>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
@@ -2417,7 +2611,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.9304</v>
+        <v>0.9301</v>
       </c>
     </row>
     <row r="25">
@@ -2427,7 +2621,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.52</v>
+        <v>68.53</v>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
@@ -2435,7 +2629,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>96.39</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
@@ -2443,7 +2637,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>319.43</v>
+        <v>319.44</v>
       </c>
     </row>
     <row r="26">
@@ -2453,7 +2647,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3657.849</v>
+        <v>3656.6602</v>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
@@ -2461,7 +2655,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7353.5187</v>
+        <v>7351.1384</v>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
@@ -2469,7 +2663,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>36918.8023</v>
+        <v>36906.8889</v>
       </c>
     </row>
     <row r="29">
@@ -2825,7 +3019,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
@@ -2835,7 +3029,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K50" s="1" t="inlineStr">
@@ -2845,7 +3039,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -2856,7 +3050,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5.3652</v>
+        <v>5.3599</v>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
@@ -2864,7 +3058,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.3652</v>
+        <v>5.3599</v>
       </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
@@ -2872,7 +3066,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5.3652</v>
+        <v>5.3599</v>
       </c>
     </row>
     <row r="52">
@@ -2908,7 +3102,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2632.2208</v>
+        <v>2629.6205</v>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
@@ -2916,7 +3110,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5297.4375</v>
+        <v>5292.2045</v>
       </c>
       <c r="K53" s="1" t="inlineStr">
         <is>
@@ -2924,7 +3118,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>26619.3325</v>
+        <v>26593.0367</v>
       </c>
     </row>
     <row r="55">
@@ -3042,7 +3236,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -3052,7 +3246,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -3062,7 +3256,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3267,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7.2605</v>
+        <v>7.261</v>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
@@ -3081,7 +3275,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.2605</v>
+        <v>7.261</v>
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
@@ -3089,7 +3283,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>7.2605</v>
+        <v>7.261</v>
       </c>
     </row>
     <row r="61">
@@ -3125,7 +3319,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3559.0971</v>
+        <v>3559.3422</v>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
@@ -3133,7 +3327,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7152.972</v>
+        <v>7153.4646</v>
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
@@ -3141,7 +3335,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>35903.3903</v>
+        <v>35905.8628</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3472,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -3288,7 +3482,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -3298,7 +3492,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.7684</v>
+        <v>22.7513</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
@@ -3317,7 +3511,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>22.7684</v>
+        <v>22.7513</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -3325,7 +3519,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>22.7684</v>
+        <v>22.7513</v>
       </c>
     </row>
     <row r="7">
@@ -3361,7 +3555,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45052.9715</v>
+        <v>45019.1349</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
@@ -3369,7 +3563,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>90161.0425</v>
+        <v>90093.3279</v>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
@@ -3377,23 +3571,23 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>451022.6509</v>
+        <v>450683.9144</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Western Union</t>
+          <t>Wise</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>Western Union</t>
+          <t>Wise</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>Western Union</t>
+          <t>Wise</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-20 14:39:43</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -3505,7 +3699,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-20 14:39:59</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -3515,7 +3709,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3720,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55.9489</v>
+        <v>55.4967</v>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
@@ -3534,7 +3728,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>55.9489</v>
+        <v>55.4967</v>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
@@ -3542,7 +3736,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>55.6595</v>
+        <v>55.4967</v>
       </c>
     </row>
     <row r="16">
@@ -3552,7 +3746,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
@@ -3560,7 +3754,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
@@ -3568,7 +3762,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>41.71</v>
       </c>
     </row>
     <row r="17">
@@ -3578,7 +3772,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39164.23</v>
+        <v>38561.327</v>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
@@ -3586,7 +3780,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>83923.35000000001</v>
+        <v>82720.0512</v>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
@@ -3594,7 +3788,24 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>417446.25</v>
+        <v>413910.4826</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -3603,14 +3814,29 @@
           <t>country_send</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BHD</t>
+        </is>
+      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>BHD</t>
+        </is>
+      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>BHD</t>
         </is>
       </c>
     </row>
@@ -3620,14 +3846,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>INR</t>
         </is>
       </c>
     </row>
@@ -3637,15 +3878,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>400</v>
+      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L22" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="23">
@@ -3654,14 +3904,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:29:51</t>
+        </is>
+      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:30:11</t>
+        </is>
+      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:30:30</t>
         </is>
       </c>
     </row>
@@ -3671,15 +3936,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>221.6777</v>
+      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>221.6777</v>
+      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L24" t="n">
+        <v>221.6777</v>
       </c>
     </row>
     <row r="25">
@@ -3688,15 +3962,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>1.5</v>
+      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -3705,15 +3988,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>44003.0234</v>
+      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>88338.5634</v>
+      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L26" t="n">
+        <v>443022.8834</v>
       </c>
     </row>
     <row r="28">
@@ -3831,7 +4123,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -3841,7 +4133,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -3851,7 +4143,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -3862,7 +4154,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>61.0804</v>
+        <v>61.0311</v>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
@@ -3870,7 +4162,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>61.0804</v>
+        <v>61.0311</v>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
@@ -3878,7 +4170,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>61.0804</v>
+        <v>61.0311</v>
       </c>
     </row>
     <row r="34">
@@ -3914,7 +4206,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42367.8087</v>
+        <v>42333.6122</v>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
@@ -3922,7 +4214,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>90930.3915</v>
+        <v>90856.99860000001</v>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
@@ -3930,7 +4222,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>455152.8167</v>
+        <v>454785.4479</v>
       </c>
     </row>
     <row r="37">
@@ -4048,7 +4340,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -4058,7 +4350,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -4068,7 +4360,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4371,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>106.053</v>
+        <v>105.658</v>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
@@ -4087,7 +4379,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>106.053</v>
+        <v>105.658</v>
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
@@ -4095,7 +4387,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>106.053</v>
+        <v>105.658</v>
       </c>
     </row>
     <row r="43">
@@ -4131,7 +4423,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52687.1304</v>
+        <v>52490.8944</v>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
@@ -4139,7 +4431,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>105449.5584</v>
+        <v>105056.806</v>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
@@ -4147,7 +4439,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>527550.0432</v>
+        <v>525585.1552</v>
       </c>
     </row>
     <row r="47">
@@ -4384,7 +4676,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -4394,7 +4686,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -4404,7 +4696,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -4415,7 +4707,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17.7555</v>
+        <v>17.7349</v>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
@@ -4423,7 +4715,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>17.7555</v>
+        <v>17.7349</v>
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
@@ -4431,7 +4723,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>17.7555</v>
+        <v>17.7349</v>
       </c>
     </row>
     <row r="61">
@@ -4467,7 +4759,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>43987.2981</v>
+        <v>43936.2639</v>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
@@ -4475,7 +4767,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>88063.0187</v>
+        <v>87960.84759999999</v>
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
@@ -4483,7 +4775,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>440667.5401</v>
+        <v>440156.2759</v>
       </c>
     </row>
     <row r="65">
@@ -4839,7 +5131,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
@@ -4849,7 +5141,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K86" s="1" t="inlineStr">
@@ -4859,7 +5151,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -4870,7 +5162,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>61.798</v>
+        <v>61.6866</v>
       </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
@@ -4878,7 +5170,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>61.798</v>
+        <v>61.6866</v>
       </c>
       <c r="K87" s="1" t="inlineStr">
         <is>
@@ -4886,7 +5178,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>61.798</v>
+        <v>61.6866</v>
       </c>
     </row>
     <row r="88">
@@ -4922,7 +5214,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>30697.5385</v>
+        <v>30642.2017</v>
       </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
@@ -4930,7 +5222,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>61464.2908</v>
+        <v>61353.4924</v>
       </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
@@ -4938,7 +5230,7 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>307597.0731</v>
+        <v>307042.584</v>
       </c>
     </row>
     <row r="91">
@@ -5056,7 +5348,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F95" s="1" t="inlineStr">
@@ -5066,7 +5358,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K95" s="1" t="inlineStr">
@@ -5076,7 +5368,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5379,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>83.62820000000001</v>
+        <v>83.5668</v>
       </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
@@ -5095,7 +5387,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>83.62820000000001</v>
+        <v>83.5668</v>
       </c>
       <c r="K96" s="1" t="inlineStr">
         <is>
@@ -5103,7 +5395,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>83.62820000000001</v>
+        <v>83.5668</v>
       </c>
     </row>
     <row r="97">
@@ -5139,7 +5431,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>41396.7953</v>
+        <v>41366.4017</v>
       </c>
       <c r="F98" s="1" t="inlineStr">
         <is>
@@ -5147,7 +5439,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>82883.0727</v>
+        <v>82822.21980000001</v>
       </c>
       <c r="K98" s="1" t="inlineStr">
         <is>
@@ -5155,7 +5447,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>414768.2747</v>
+        <v>414463.751</v>
       </c>
     </row>
   </sheetData>
@@ -5169,7 +5461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5292,7 +5584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -5302,7 +5594,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -5312,7 +5604,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5615,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.0272</v>
+        <v>16.0236</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
@@ -5331,7 +5623,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>16.0272</v>
+        <v>16.0236</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -5339,7 +5631,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>16.0272</v>
+        <v>16.0236</v>
       </c>
     </row>
     <row r="7">
@@ -5375,7 +5667,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31666.5418</v>
+        <v>31659.4289</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
@@ -5383,7 +5675,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>63384.3706</v>
+        <v>63370.1333</v>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
@@ -5391,7 +5683,39 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>317126.3599</v>
+        <v>317055.1275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -5400,14 +5724,44 @@
           <t>country_send</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>AUD</t>
         </is>
       </c>
     </row>
@@ -5417,14 +5771,44 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -5434,15 +5818,33 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>700</v>
+      </c>
+      <c r="C13" t="n">
+        <v>700</v>
+      </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1500</v>
+      </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L13" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7500</v>
       </c>
     </row>
     <row r="14">
@@ -5451,14 +5853,44 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:25:06</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:26:57</t>
+        </is>
+      </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:25:06</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:27:17</t>
+        </is>
+      </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:25:06</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:27:36</t>
         </is>
       </c>
     </row>
@@ -5468,15 +5900,33 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>39.0859</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40.1896</v>
+      </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>39.0859</v>
+      </c>
+      <c r="H15" t="n">
+        <v>40.1896</v>
+      </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L15" t="n">
+        <v>39.0859</v>
+      </c>
+      <c r="M15" t="n">
+        <v>39.0797</v>
       </c>
     </row>
     <row r="16">
@@ -5485,15 +5935,33 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L16" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5502,15 +5970,33 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>27114.6705</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28132.72</v>
+      </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>58181.3164</v>
+      </c>
+      <c r="H17" t="n">
+        <v>60284.4</v>
+      </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L17" t="n">
+        <v>291180.9652</v>
+      </c>
+      <c r="M17" t="n">
+        <v>293097.75</v>
       </c>
     </row>
     <row r="19">
@@ -5628,7 +6114,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -5638,7 +6124,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -5648,7 +6134,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -5659,7 +6145,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42.9959</v>
+        <v>42.9837</v>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
@@ -5667,7 +6153,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>42.9959</v>
+        <v>42.9837</v>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
@@ -5675,7 +6161,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>42.9959</v>
+        <v>42.9837</v>
       </c>
     </row>
     <row r="25">
@@ -5711,7 +6197,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29776.3806</v>
+        <v>29767.9316</v>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
@@ -5719,7 +6205,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>63923.7244</v>
+        <v>63905.5861</v>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
@@ -5727,7 +6213,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>320027.9428</v>
+        <v>319937.1355</v>
       </c>
     </row>
     <row r="28">
@@ -5845,7 +6331,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -5855,7 +6341,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -5865,7 +6351,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -5876,7 +6362,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>74.65349999999999</v>
+        <v>74.41379999999999</v>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
@@ -5884,7 +6370,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>74.65349999999999</v>
+        <v>74.41379999999999</v>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
@@ -5892,7 +6378,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>74.65349999999999</v>
+        <v>74.41379999999999</v>
       </c>
     </row>
     <row r="34">
@@ -5928,7 +6414,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>37031.8687</v>
+        <v>36912.9655</v>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
@@ -5936,7 +6422,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>74132.4186</v>
+        <v>73894.39169999999</v>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
@@ -5944,7 +6430,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>370934.5781</v>
+        <v>369743.5688</v>
       </c>
     </row>
     <row r="38">
@@ -6300,7 +6786,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -6310,7 +6796,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -6320,7 +6806,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6817,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12.4985</v>
+        <v>12.4905</v>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
@@ -6339,7 +6825,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>12.4985</v>
+        <v>12.4905</v>
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
@@ -6347,7 +6833,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>12.4985</v>
+        <v>12.4905</v>
       </c>
     </row>
     <row r="61">
@@ -6383,7 +6869,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>30913.4149</v>
+        <v>30893.628</v>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
@@ -6391,7 +6877,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>61905.3205</v>
+        <v>61865.6963</v>
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
@@ -6399,7 +6885,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>309840.6897</v>
+        <v>309642.3678</v>
       </c>
     </row>
     <row r="65">
@@ -6755,7 +7241,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
@@ -6765,7 +7251,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
       <c r="K86" s="1" t="inlineStr">
@@ -6775,7 +7261,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-06-20 14:40:15</t>
+          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -6786,7 +7272,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>58.868</v>
+        <v>58.8554</v>
       </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
@@ -6794,7 +7280,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>58.868</v>
+        <v>58.8554</v>
       </c>
       <c r="K87" s="1" t="inlineStr">
         <is>
@@ -6802,7 +7288,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>58.868</v>
+        <v>58.8554</v>
       </c>
     </row>
     <row r="88">
@@ -6838,7 +7324,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>29093.1543</v>
+        <v>29086.9272</v>
       </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
@@ -6846,7 +7332,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>58264.603</v>
+        <v>58252.1322</v>
       </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
@@ -6854,7 +7340,7 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>291631.4833</v>
+        <v>291569.063</v>
       </c>
     </row>
   </sheetData>
@@ -6868,7 +7354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K71"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6876,20 +7362,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AUD</t>
         </is>
       </c>
     </row>
@@ -6899,14 +7417,29 @@
           <t>country_receive</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>VND</t>
         </is>
       </c>
     </row>
@@ -6916,15 +7449,24 @@
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>700</v>
+      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>1500</v>
+      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
+      </c>
+      <c r="L4" t="n">
+        <v>7500</v>
       </c>
     </row>
     <row r="5">
@@ -6933,14 +7475,29 @@
           <t>timestamp</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:28:54</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:29:13</t>
+        </is>
+      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-06-22 04:29:32</t>
         </is>
       </c>
     </row>
@@ -6950,15 +7507,24 @@
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>17136.73</v>
+      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>17136.73</v>
+      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
+      </c>
+      <c r="L6" t="n">
+        <v>16900.129</v>
       </c>
     </row>
     <row r="7">
@@ -6967,15 +7533,24 @@
           <t>service_fee</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6984,15 +7559,24 @@
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>11995711</v>
+      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>25705095</v>
+      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
+      </c>
+      <c r="L8" t="n">
+        <v>126750967.5</v>
       </c>
     </row>
     <row r="11">

--- a/output.xlsx
+++ b/output.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -1109,52 +1109,20 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-    </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>MYR</t>
         </is>
       </c>
     </row>
@@ -1164,29 +1132,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -1196,24 +1149,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2500</v>
-      </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>5000</v>
-      </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L40" t="n">
-        <v>25000</v>
       </c>
     </row>
     <row r="41">
@@ -1222,29 +1166,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -1254,24 +1183,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>24.9034</v>
-      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>24.9034</v>
-      </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L42" t="n">
-        <v>24.9034</v>
       </c>
     </row>
     <row r="43">
@@ -1280,24 +1200,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>45.58</v>
-      </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>72.62</v>
-      </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L43" t="n">
-        <v>288.86</v>
       </c>
     </row>
     <row r="44">
@@ -1306,24 +1217,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>61123.403</v>
-      </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>122708.5151</v>
-      </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L44" t="n">
-        <v>615391.4039</v>
       </c>
     </row>
     <row r="47">
@@ -1683,52 +1585,20 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="G73" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="L73" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-    </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>USD</t>
         </is>
       </c>
     </row>
@@ -1738,29 +1608,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>BDT</t>
-        </is>
-      </c>
       <c r="K75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>BDT</t>
         </is>
       </c>
     </row>
@@ -1770,24 +1625,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>500</v>
-      </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G76" t="n">
-        <v>1000</v>
-      </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L76" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="77">
@@ -1796,29 +1642,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="K77" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -1828,24 +1659,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>117.345</v>
-      </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G78" t="n">
-        <v>117.345</v>
-      </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L78" t="n">
-        <v>117.345</v>
       </c>
     </row>
     <row r="79">
@@ -1854,24 +1676,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>9.710000000000001</v>
-      </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G79" t="n">
-        <v>15.51</v>
-      </c>
       <c r="K79" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L79" t="n">
-        <v>61.96</v>
       </c>
     </row>
     <row r="80">
@@ -1880,24 +1693,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>57533.08</v>
-      </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G80" t="n">
-        <v>115524.979</v>
-      </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L80" t="n">
-        <v>579454.3038</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1925,29 +1729,14 @@
           <t>Wise</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -1962,37 +1751,22 @@
           <t>AUD</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>country_send</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -2009,37 +1783,22 @@
           <t>CNY</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>country_receive</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
@@ -2054,9 +1813,6 @@
       <c r="B4" t="n">
         <v>700</v>
       </c>
-      <c r="C4" t="n">
-        <v>700</v>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -2065,9 +1821,6 @@
       <c r="G4" t="n">
         <v>1500</v>
       </c>
-      <c r="H4" t="n">
-        <v>1500</v>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -2076,9 +1829,6 @@
       <c r="L4" t="n">
         <v>7500</v>
       </c>
-      <c r="M4" t="n">
-        <v>7500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2088,12 +1838,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:27:55</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -2103,12 +1848,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:28:14</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -2118,12 +1858,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:28:34</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -2136,9 +1871,6 @@
       <c r="B6" t="n">
         <v>4.822</v>
       </c>
-      <c r="C6" t="n">
-        <v>4.8012</v>
-      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
@@ -2147,9 +1879,6 @@
       <c r="G6" t="n">
         <v>4.822</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.8108</v>
-      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
@@ -2158,9 +1887,6 @@
       <c r="L6" t="n">
         <v>4.822</v>
       </c>
-      <c r="M6" t="n">
-        <v>4.8108</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2171,9 +1897,6 @@
       <c r="B7" t="n">
         <v>12.33</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
@@ -2182,9 +1905,6 @@
       <c r="G7" t="n">
         <v>18.38</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
@@ -2193,9 +1913,6 @@
       <c r="L7" t="n">
         <v>63.76</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2206,9 +1923,6 @@
       <c r="B8" t="n">
         <v>3315.9447</v>
       </c>
-      <c r="C8" t="n">
-        <v>3360.84</v>
-      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
@@ -2217,9 +1931,6 @@
       <c r="G8" t="n">
         <v>7144.3716</v>
       </c>
-      <c r="H8" t="n">
-        <v>7216.2</v>
-      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
@@ -2228,9 +1939,6 @@
       <c r="L8" t="n">
         <v>35857.5493</v>
       </c>
-      <c r="M8" t="n">
-        <v>36081</v>
-      </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
@@ -2347,7 +2055,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -2357,7 +2065,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2367,7 +2075,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2157,20 @@
         <v>45540.0539</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="L19" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-    </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>HKD</t>
         </is>
       </c>
     </row>
@@ -2504,29 +2180,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -2536,24 +2197,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>4000</v>
-      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>8000</v>
-      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L22" t="n">
-        <v>40000</v>
       </c>
     </row>
     <row r="23">
@@ -2562,29 +2214,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -2594,24 +2231,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.9301</v>
-      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>0.9301</v>
-      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L24" t="n">
-        <v>0.9301</v>
       </c>
     </row>
     <row r="25">
@@ -2620,24 +2248,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>68.53</v>
-      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>96.40000000000001</v>
-      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L25" t="n">
-        <v>319.44</v>
       </c>
     </row>
     <row r="26">
@@ -2646,24 +2265,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>3656.6602</v>
-      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>7351.1384</v>
-      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L26" t="n">
-        <v>36906.8889</v>
       </c>
     </row>
     <row r="29">
@@ -2904,52 +2514,20 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="L46" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-    </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>SGD</t>
         </is>
       </c>
     </row>
@@ -2959,29 +2537,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -2991,24 +2554,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>500</v>
-      </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>1000</v>
-      </c>
       <c r="K49" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L49" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="50">
@@ -3017,29 +2571,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="K50" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -3049,24 +2588,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>5.3599</v>
-      </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>5.3599</v>
-      </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L51" t="n">
-        <v>5.3599</v>
       </c>
     </row>
     <row r="52">
@@ -3075,24 +2605,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>9.390000000000001</v>
-      </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>12.63</v>
-      </c>
       <c r="K52" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L52" t="n">
-        <v>38.52</v>
       </c>
     </row>
     <row r="53">
@@ -3101,40 +2622,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>2629.6205</v>
-      </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G53" t="n">
-        <v>5292.2045</v>
-      </c>
       <c r="K53" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>26593.0367</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="L55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
         </is>
       </c>
     </row>
@@ -3144,29 +2639,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>USD</t>
         </is>
       </c>
     </row>
@@ -3176,29 +2656,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>CNY</t>
         </is>
       </c>
     </row>
@@ -3208,24 +2673,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>500</v>
-      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>1000</v>
-      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L58" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="59">
@@ -3234,29 +2690,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -3266,24 +2707,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>7.261</v>
-      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>7.261</v>
-      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L60" t="n">
-        <v>7.261</v>
       </c>
     </row>
     <row r="61">
@@ -3292,24 +2724,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>14.81</v>
-      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L61" t="n">
-        <v>54.97</v>
       </c>
     </row>
     <row r="62">
@@ -3318,24 +2741,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>3559.3422</v>
-      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>7153.4646</v>
-      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L62" t="n">
-        <v>35905.8628</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +2763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3472,7 +2886,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -3482,7 +2896,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -3492,7 +2906,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3103,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -3699,7 +3113,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -3709,7 +3123,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -3791,52 +3205,20 @@
         <v>413910.4826</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L19" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BHD</t>
-        </is>
-      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>BHD</t>
-        </is>
-      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>BHD</t>
         </is>
       </c>
     </row>
@@ -3846,29 +3228,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -3878,24 +3245,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>200</v>
-      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>400</v>
-      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L22" t="n">
-        <v>2000</v>
       </c>
     </row>
     <row r="23">
@@ -3904,29 +3262,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:29:51</t>
-        </is>
-      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:30:11</t>
-        </is>
-      </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:30:30</t>
         </is>
       </c>
     </row>
@@ -3936,24 +3279,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>221.6777</v>
-      </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>221.6777</v>
-      </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L24" t="n">
-        <v>221.6777</v>
       </c>
     </row>
     <row r="25">
@@ -3962,24 +3296,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>1.5</v>
-      </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>1.5</v>
-      </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -3988,24 +3313,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>44003.0234</v>
-      </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>88338.5634</v>
-      </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L26" t="n">
-        <v>443022.8834</v>
       </c>
     </row>
     <row r="28">
@@ -4123,7 +3439,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -4133,7 +3449,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -4143,7 +3459,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -4231,14 +3547,29 @@
           <t>Wise</t>
         </is>
       </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
         </is>
       </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
       <c r="L37" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -4253,6 +3584,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
@@ -4263,12 +3599,22 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
@@ -4285,6 +3631,11 @@
           <t>INR</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
@@ -4295,12 +3646,22 @@
           <t>INR</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
@@ -4315,6 +3676,9 @@
       <c r="B40" t="n">
         <v>500</v>
       </c>
+      <c r="C40" t="n">
+        <v>500</v>
+      </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -4323,6 +3687,9 @@
       <c r="G40" t="n">
         <v>1000</v>
       </c>
+      <c r="H40" t="n">
+        <v>1000</v>
+      </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -4331,6 +3698,9 @@
       <c r="L40" t="n">
         <v>5000</v>
       </c>
+      <c r="M40" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -4340,7 +3710,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024-06-22 05:50:39</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -4350,7 +3725,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2024-06-22 05:50:52</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -4360,7 +3740,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2024-06-22 05:51:05</t>
         </is>
       </c>
     </row>
@@ -4373,6 +3758,9 @@
       <c r="B42" t="n">
         <v>105.658</v>
       </c>
+      <c r="C42" t="n">
+        <v>106.5443</v>
+      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
@@ -4381,6 +3769,9 @@
       <c r="G42" t="n">
         <v>105.658</v>
       </c>
+      <c r="H42" t="n">
+        <v>106.5443</v>
+      </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
@@ -4389,6 +3780,9 @@
       <c r="L42" t="n">
         <v>105.658</v>
       </c>
+      <c r="M42" t="n">
+        <v>105.5103</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -4399,6 +3793,9 @@
       <c r="B43" t="n">
         <v>3.2</v>
       </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
@@ -4407,6 +3804,9 @@
       <c r="G43" t="n">
         <v>5.69</v>
       </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
@@ -4415,6 +3815,9 @@
       <c r="L43" t="n">
         <v>25.6</v>
       </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -4425,6 +3828,9 @@
       <c r="B44" t="n">
         <v>52490.8944</v>
       </c>
+      <c r="C44" t="n">
+        <v>53272.15</v>
+      </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
@@ -4433,6 +3839,9 @@
       <c r="G44" t="n">
         <v>105056.806</v>
       </c>
+      <c r="H44" t="n">
+        <v>106544.3</v>
+      </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
@@ -4441,6 +3850,9 @@
       <c r="L44" t="n">
         <v>525585.1552</v>
       </c>
+      <c r="M44" t="n">
+        <v>527551.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -4561,52 +3973,20 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="L55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-    </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>MYR</t>
         </is>
       </c>
     </row>
@@ -4616,29 +3996,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -4648,24 +4013,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>2500</v>
-      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>5000</v>
-      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L58" t="n">
-        <v>25000</v>
       </c>
     </row>
     <row r="59">
@@ -4674,29 +4030,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -4706,24 +4047,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>17.7349</v>
-      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>17.7349</v>
-      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L60" t="n">
-        <v>17.7349</v>
       </c>
     </row>
     <row r="61">
@@ -4732,24 +4064,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>22.61</v>
-      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>40.24</v>
-      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L61" t="n">
-        <v>181.35</v>
       </c>
     </row>
     <row r="62">
@@ -4758,24 +4081,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>43936.2639</v>
-      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>87960.84759999999</v>
-      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L62" t="n">
-        <v>440156.2759</v>
       </c>
     </row>
     <row r="65">
@@ -5016,52 +4330,20 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="G82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="L82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-    </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>SGD</t>
         </is>
       </c>
     </row>
@@ -5071,29 +4353,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -5103,24 +4370,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>500</v>
-      </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G85" t="n">
-        <v>1000</v>
-      </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L85" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="86">
@@ -5129,29 +4387,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -5161,24 +4404,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>61.6866</v>
-      </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G87" t="n">
-        <v>61.6866</v>
-      </c>
       <c r="K87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L87" t="n">
-        <v>61.6866</v>
       </c>
     </row>
     <row r="88">
@@ -5187,24 +4421,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>3.26</v>
-      </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G88" t="n">
-        <v>5.4</v>
-      </c>
       <c r="K88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L88" t="n">
-        <v>22.54</v>
       </c>
     </row>
     <row r="89">
@@ -5213,40 +4438,14 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>30642.2017</v>
-      </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G89" t="n">
-        <v>61353.4924</v>
-      </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>307042.584</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="G91" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="L91" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
         </is>
       </c>
     </row>
@@ -5256,29 +4455,14 @@
           <t>country_send</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="F92" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="K92" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>USD</t>
         </is>
       </c>
     </row>
@@ -5288,29 +4472,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="F93" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K93" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>INR</t>
         </is>
       </c>
     </row>
@@ -5320,24 +4489,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>500</v>
-      </c>
       <c r="F94" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G94" t="n">
-        <v>1000</v>
-      </c>
       <c r="K94" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L94" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="95">
@@ -5346,29 +4506,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="F95" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="K95" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -5378,24 +4523,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>83.5668</v>
-      </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G96" t="n">
-        <v>83.5668</v>
-      </c>
       <c r="K96" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L96" t="n">
-        <v>83.5668</v>
       </c>
     </row>
     <row r="97">
@@ -5404,24 +4540,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>4.99</v>
-      </c>
       <c r="F97" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G97" t="n">
-        <v>8.91</v>
-      </c>
       <c r="K97" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L97" t="n">
-        <v>40.33</v>
       </c>
     </row>
     <row r="98">
@@ -5430,24 +4557,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>41366.4017</v>
-      </c>
       <c r="F98" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G98" t="n">
-        <v>82822.21980000001</v>
-      </c>
       <c r="K98" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L98" t="n">
-        <v>414463.751</v>
       </c>
     </row>
   </sheetData>
@@ -5461,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5584,7 +4702,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -5594,7 +4712,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -5604,7 +4722,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -5692,29 +4810,14 @@
           <t>Wise</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
-        </is>
-      </c>
-      <c r="M10" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -5729,37 +4832,22 @@
           <t>AUD</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>country_send</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -5776,37 +4864,22 @@
           <t>PHP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>PHP</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>country_receive</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
         <is>
           <t>PHP</t>
         </is>
@@ -5821,9 +4894,6 @@
       <c r="B13" t="n">
         <v>700</v>
       </c>
-      <c r="C13" t="n">
-        <v>700</v>
-      </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -5832,9 +4902,6 @@
       <c r="G13" t="n">
         <v>1500</v>
       </c>
-      <c r="H13" t="n">
-        <v>1500</v>
-      </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -5843,9 +4910,6 @@
       <c r="L13" t="n">
         <v>7500</v>
       </c>
-      <c r="M13" t="n">
-        <v>7500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5855,12 +4919,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:26:57</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -5870,12 +4929,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:27:17</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -5885,12 +4939,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:27:36</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -5903,9 +4952,6 @@
       <c r="B15" t="n">
         <v>39.0859</v>
       </c>
-      <c r="C15" t="n">
-        <v>40.1896</v>
-      </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
@@ -5914,9 +4960,6 @@
       <c r="G15" t="n">
         <v>39.0859</v>
       </c>
-      <c r="H15" t="n">
-        <v>40.1896</v>
-      </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
@@ -5925,9 +4968,6 @@
       <c r="L15" t="n">
         <v>39.0859</v>
       </c>
-      <c r="M15" t="n">
-        <v>39.0797</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5938,9 +4978,6 @@
       <c r="B16" t="n">
         <v>6.28</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
@@ -5949,9 +4986,6 @@
       <c r="G16" t="n">
         <v>11.45</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
@@ -5960,9 +4994,6 @@
       <c r="L16" t="n">
         <v>50.23</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5973,9 +5004,6 @@
       <c r="B17" t="n">
         <v>27114.6705</v>
       </c>
-      <c r="C17" t="n">
-        <v>28132.72</v>
-      </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
@@ -5984,9 +5012,6 @@
       <c r="G17" t="n">
         <v>58181.3164</v>
       </c>
-      <c r="H17" t="n">
-        <v>60284.4</v>
-      </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
@@ -5995,9 +5020,6 @@
       <c r="L17" t="n">
         <v>291180.9652</v>
       </c>
-      <c r="M17" t="n">
-        <v>293097.75</v>
-      </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
@@ -6114,7 +5136,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -6124,7 +5146,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -6134,7 +5156,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -6331,7 +5353,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -6341,7 +5363,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -6351,7 +5373,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-22 04:25:06</t>
+          <t>2024-06-22 05:49:24</t>
         </is>
       </c>
     </row>
@@ -6671,52 +5693,20 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="L55" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-    </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>MYR</t>
         </is>
       </c>
     </row>
@@ -6726,29 +5716,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -6758,24 +5733,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>2500</v>
-      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>5000</v>
-      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L58" t="n">
-        <v>25000</v>
       </c>
     </row>
     <row r="59">
@@ -6784,29 +5750,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -6816,24 +5767,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>12.4905</v>
-      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>12.4905</v>
-      </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L60" t="n">
-        <v>12.4905</v>
       </c>
     </row>
     <row r="61">
@@ -6842,24 +5784,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>26.63</v>
-      </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>46.98</v>
-      </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L61" t="n">
-        <v>209.77</v>
       </c>
     </row>
     <row r="62">
@@ -6868,24 +5801,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>30893.628</v>
-      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>61865.6963</v>
-      </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L62" t="n">
-        <v>309642.3678</v>
       </c>
     </row>
     <row r="65">
@@ -7126,52 +6050,20 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="G82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="L82" s="1" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-    </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
       <c r="K83" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>USD</t>
         </is>
       </c>
     </row>
@@ -7181,29 +6073,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
       <c r="K84" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>PHP</t>
         </is>
       </c>
     </row>
@@ -7213,24 +6090,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>500</v>
-      </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G85" t="n">
-        <v>1000</v>
-      </c>
       <c r="K85" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L85" t="n">
-        <v>5000</v>
       </c>
     </row>
     <row r="86">
@@ -7239,29 +6107,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
-        </is>
-      </c>
       <c r="K86" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:25:06</t>
         </is>
       </c>
     </row>
@@ -7271,24 +6124,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>58.8554</v>
-      </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G87" t="n">
-        <v>58.8554</v>
-      </c>
       <c r="K87" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L87" t="n">
-        <v>58.8554</v>
       </c>
     </row>
     <row r="88">
@@ -7297,24 +6141,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>5.79</v>
-      </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G88" t="n">
-        <v>10.25</v>
-      </c>
       <c r="K88" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L88" t="n">
-        <v>46.01</v>
       </c>
     </row>
     <row r="89">
@@ -7323,24 +6158,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>29086.9272</v>
-      </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G89" t="n">
-        <v>58252.1322</v>
-      </c>
       <c r="K89" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L89" t="n">
-        <v>291569.063</v>
       </c>
     </row>
   </sheetData>
@@ -7354,7 +6180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7362,52 +6188,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>AUD</t>
         </is>
       </c>
     </row>
@@ -7417,29 +6211,14 @@
           <t>country_receive</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>VND</t>
         </is>
       </c>
     </row>
@@ -7449,24 +6228,15 @@
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>700</v>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1500</v>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
         </is>
-      </c>
-      <c r="L4" t="n">
-        <v>7500</v>
       </c>
     </row>
     <row r="5">
@@ -7475,29 +6245,14 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:28:54</t>
-        </is>
-      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:29:13</t>
-        </is>
-      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024-06-22 04:29:32</t>
         </is>
       </c>
     </row>
@@ -7507,24 +6262,15 @@
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>17136.73</v>
-      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>17136.73</v>
-      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
         </is>
-      </c>
-      <c r="L6" t="n">
-        <v>16900.129</v>
       </c>
     </row>
     <row r="7">
@@ -7533,24 +6279,15 @@
           <t>service_fee</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
         </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7559,24 +6296,15 @@
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>11995711</v>
-      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>25705095</v>
-      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
         </is>
-      </c>
-      <c r="L8" t="n">
-        <v>126750967.5</v>
       </c>
     </row>
     <row r="11">

--- a/output.xlsx
+++ b/output.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="BDT" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="CNY" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="INR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PHP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="VND" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -603,12 +606,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:17:28</t>
+          <t>2024-06-22 08:16:47</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -618,12 +621,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:18:02</t>
+          <t>2024-06-22 08:17:18</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -633,12 +636,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:18:32</t>
+          <t>2024-06-22 08:17:50</t>
         </is>
       </c>
     </row>
@@ -862,7 +865,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-22 06:13:15</t>
+          <t>2024-06-22 08:12:47</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -872,7 +875,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-22 06:13:37</t>
+          <t>2024-06-22 08:13:15</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -882,7 +885,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-22 06:14:05</t>
+          <t>2024-06-22 08:13:38</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1136,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-22 06:18:08</t>
+          <t>2024-06-22 08:17:39</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -1148,12 +1151,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-06-22 06:18:26</t>
+          <t>2024-06-22 08:17:58</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -1163,12 +1166,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-06-22 06:18:54</t>
+          <t>2024-06-22 08:18:25</t>
         </is>
       </c>
     </row>
@@ -1399,15 +1402,30 @@
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="inlineStr">
         <is>
           <t>Western Union</t>
         </is>
@@ -1424,6 +1442,11 @@
           <t>MYR</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
@@ -1434,12 +1457,22 @@
           <t>MYR</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>MYR</t>
         </is>
@@ -1456,6 +1489,11 @@
           <t>BDT</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
@@ -1466,12 +1504,22 @@
           <t>BDT</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>BDT</t>
         </is>
@@ -1486,6 +1534,9 @@
       <c r="B40" t="n">
         <v>2500</v>
       </c>
+      <c r="C40" t="n">
+        <v>2500</v>
+      </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -1494,6 +1545,9 @@
       <c r="G40" t="n">
         <v>5000</v>
       </c>
+      <c r="H40" t="n">
+        <v>5000</v>
+      </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -1502,6 +1556,9 @@
       <c r="L40" t="n">
         <v>25000</v>
       </c>
+      <c r="M40" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1511,7 +1568,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-22 06:14:49</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:11</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -1521,7 +1583,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-22 06:15:14</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:28</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -1531,7 +1598,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-22 06:15:34</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:49</t>
         </is>
       </c>
     </row>
@@ -1542,6 +1614,9 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>24.9034</v>
+      </c>
+      <c r="C42" t="n">
         <v>25.0201</v>
       </c>
       <c r="F42" s="1" t="inlineStr">
@@ -1550,6 +1625,9 @@
         </is>
       </c>
       <c r="G42" t="n">
+        <v>24.9034</v>
+      </c>
+      <c r="H42" t="n">
         <v>25.0201</v>
       </c>
       <c r="K42" s="1" t="inlineStr">
@@ -1558,6 +1636,9 @@
         </is>
       </c>
       <c r="L42" t="n">
+        <v>24.9034</v>
+      </c>
+      <c r="M42" t="n">
         <v>25.0201</v>
       </c>
     </row>
@@ -1568,6 +1649,9 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>45.58</v>
+      </c>
+      <c r="C43" t="n">
         <v>10</v>
       </c>
       <c r="F43" s="1" t="inlineStr">
@@ -1576,6 +1660,9 @@
         </is>
       </c>
       <c r="G43" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="H43" t="n">
         <v>10</v>
       </c>
       <c r="K43" s="1" t="inlineStr">
@@ -1584,6 +1671,9 @@
         </is>
       </c>
       <c r="L43" t="n">
+        <v>288.86</v>
+      </c>
+      <c r="M43" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1594,6 +1684,9 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>61123.403</v>
+      </c>
+      <c r="C44" t="n">
         <v>62300.049</v>
       </c>
       <c r="F44" s="1" t="inlineStr">
@@ -1602,6 +1695,9 @@
         </is>
       </c>
       <c r="G44" t="n">
+        <v>122708.5151</v>
+      </c>
+      <c r="H44" t="n">
         <v>124850.299</v>
       </c>
       <c r="K44" s="1" t="inlineStr">
@@ -1610,6 +1706,9 @@
         </is>
       </c>
       <c r="L44" t="n">
+        <v>615391.4039</v>
+      </c>
+      <c r="M44" t="n">
         <v>625252.299</v>
       </c>
     </row>
@@ -1847,7 +1946,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-22 06:15:55</t>
+          <t>2024-06-22 08:15:16</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -1857,7 +1956,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-22 06:16:19</t>
+          <t>2024-06-22 08:15:40</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -1867,7 +1966,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-22 06:16:41</t>
+          <t>2024-06-22 08:16:02</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2163,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-06-22 06:16:07</t>
+          <t>2024-06-22 08:15:24</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
@@ -2074,7 +2173,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-06-22 06:16:29</t>
+          <t>2024-06-22 08:15:48</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">
@@ -2084,7 +2183,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2024-06-22 06:16:50</t>
+          <t>2024-06-22 08:16:09</t>
         </is>
       </c>
     </row>
@@ -2169,15 +2268,30 @@
     <row r="73">
       <c r="B73" s="1" t="inlineStr">
         <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H73" s="1" t="inlineStr">
+        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="L73" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M73" s="1" t="inlineStr">
         <is>
           <t>Western Union</t>
         </is>
@@ -2194,6 +2308,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
@@ -2204,12 +2323,22 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
@@ -2226,6 +2355,11 @@
           <t>BDT</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
@@ -2236,12 +2370,22 @@
           <t>BDT</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
       <c r="K75" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>BDT</t>
         </is>
@@ -2256,6 +2400,9 @@
       <c r="B76" t="n">
         <v>500</v>
       </c>
+      <c r="C76" t="n">
+        <v>500</v>
+      </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -2264,6 +2411,9 @@
       <c r="G76" t="n">
         <v>1000</v>
       </c>
+      <c r="H76" t="n">
+        <v>1000</v>
+      </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -2272,6 +2422,9 @@
       <c r="L76" t="n">
         <v>5000</v>
       </c>
+      <c r="M76" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2281,7 +2434,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-06-22 06:19:32</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:18:54</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
@@ -2291,7 +2449,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-06-22 06:20:07</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:19:28</t>
         </is>
       </c>
       <c r="K77" s="1" t="inlineStr">
@@ -2301,7 +2464,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-06-22 06:20:42</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:20:00</t>
         </is>
       </c>
     </row>
@@ -2312,6 +2480,9 @@
         </is>
       </c>
       <c r="B78" t="n">
+        <v>117.345</v>
+      </c>
+      <c r="C78" t="n">
         <v>117.3645</v>
       </c>
       <c r="F78" s="1" t="inlineStr">
@@ -2320,6 +2491,9 @@
         </is>
       </c>
       <c r="G78" t="n">
+        <v>117.345</v>
+      </c>
+      <c r="H78" t="n">
         <v>117.3645</v>
       </c>
       <c r="K78" s="1" t="inlineStr">
@@ -2328,6 +2502,9 @@
         </is>
       </c>
       <c r="L78" t="n">
+        <v>117.345</v>
+      </c>
+      <c r="M78" t="n">
         <v>117.3645</v>
       </c>
     </row>
@@ -2338,6 +2515,9 @@
         </is>
       </c>
       <c r="B79" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C79" t="n">
         <v>0.99</v>
       </c>
       <c r="F79" s="1" t="inlineStr">
@@ -2346,6 +2526,9 @@
         </is>
       </c>
       <c r="G79" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.99</v>
       </c>
       <c r="K79" s="1" t="inlineStr">
@@ -2354,6 +2537,9 @@
         </is>
       </c>
       <c r="L79" t="n">
+        <v>61.96</v>
+      </c>
+      <c r="M79" t="n">
         <v>0.99</v>
       </c>
     </row>
@@ -2364,6 +2550,9 @@
         </is>
       </c>
       <c r="B80" t="n">
+        <v>57533.08</v>
+      </c>
+      <c r="C80" t="n">
         <v>58566.0591</v>
       </c>
       <c r="F80" s="1" t="inlineStr">
@@ -2372,6 +2561,9 @@
         </is>
       </c>
       <c r="G80" t="n">
+        <v>115524.979</v>
+      </c>
+      <c r="H80" t="n">
         <v>117248.3091</v>
       </c>
       <c r="K80" s="1" t="inlineStr">
@@ -2380,6 +2572,9 @@
         </is>
       </c>
       <c r="L80" t="n">
+        <v>579454.3038</v>
+      </c>
+      <c r="M80" t="n">
         <v>586706.3091</v>
       </c>
     </row>
@@ -2571,12 +2766,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:11:56</t>
+          <t>2024-06-22 08:11:42</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -2586,12 +2781,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:12:26</t>
+          <t>2024-06-22 08:12:10</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -2601,12 +2796,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-06-22 06:12:55</t>
+          <t>2024-06-22 08:12:36</t>
         </is>
       </c>
     </row>
@@ -2884,12 +3079,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-22 06:18:42</t>
+          <t>2024-06-22 08:18:07</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -2899,12 +3094,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-06-22 06:19:02</t>
+          <t>2024-06-22 08:18:28</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2914,12 +3109,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-22 06:10:17</t>
+          <t>2024-06-22 08:09:32</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-06-22 06:19:28</t>
+          <t>2024-06-22 08:18:52</t>
         </is>
       </c>
     </row>
@@ -3031,15 +3226,30 @@
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M19" s="1" t="inlineStr">
         <is>
           <t>Western Union</t>
         </is>
@@ -3056,6 +3266,11 @@
           <t>HKD</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
@@ -3066,12 +3281,22 @@
           <t>HKD</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>HKD</t>
         </is>
@@ -3088,6 +3313,11 @@
           <t>CNY</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
@@ -3098,12 +3328,22 @@
           <t>CNY</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
@@ -3118,6 +3358,9 @@
       <c r="B22" t="n">
         <v>4000</v>
       </c>
+      <c r="C22" t="n">
+        <v>4000</v>
+      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -3126,6 +3369,9 @@
       <c r="G22" t="n">
         <v>8000</v>
       </c>
+      <c r="H22" t="n">
+        <v>8000</v>
+      </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -3134,6 +3380,9 @@
       <c r="L22" t="n">
         <v>40000</v>
       </c>
+      <c r="M22" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3143,7 +3392,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-22 06:13:24</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:13:07</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -3153,7 +3407,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-22 06:13:49</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:13:27</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3163,7 +3422,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-22 06:14:15</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:13:44</t>
         </is>
       </c>
     </row>
@@ -3174,6 +3438,9 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0.9301</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.9182</v>
       </c>
       <c r="F24" s="1" t="inlineStr">
@@ -3182,6 +3449,9 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>0.9301</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.9182</v>
       </c>
       <c r="K24" s="1" t="inlineStr">
@@ -3190,6 +3460,9 @@
         </is>
       </c>
       <c r="L24" t="n">
+        <v>0.9301</v>
+      </c>
+      <c r="M24" t="n">
         <v>0.9182</v>
       </c>
     </row>
@@ -3200,6 +3473,9 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>68.53</v>
+      </c>
+      <c r="C25" t="n">
         <v>5</v>
       </c>
       <c r="F25" s="1" t="inlineStr">
@@ -3208,6 +3484,9 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>215381.82</v>
+      </c>
+      <c r="H25" t="n">
         <v>5</v>
       </c>
       <c r="K25" s="1" t="inlineStr">
@@ -3216,6 +3495,9 @@
         </is>
       </c>
       <c r="L25" t="n">
+        <v>319.44</v>
+      </c>
+      <c r="M25" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3226,6 +3508,9 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>3656.6602</v>
+      </c>
+      <c r="C26" t="n">
         <v>3668.209</v>
       </c>
       <c r="F26" s="1" t="inlineStr">
@@ -3234,6 +3519,9 @@
         </is>
       </c>
       <c r="G26" t="n">
+        <v>-192885.8308</v>
+      </c>
+      <c r="H26" t="n">
         <v>7341.009</v>
       </c>
       <c r="K26" s="1" t="inlineStr">
@@ -3242,6 +3530,9 @@
         </is>
       </c>
       <c r="L26" t="n">
+        <v>36906.8889</v>
+      </c>
+      <c r="M26" t="n">
         <v>36723.409</v>
       </c>
     </row>
@@ -3360,7 +3651,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-22 06:13:27</t>
+          <t>2024-06-22 08:13:10</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -3370,7 +3661,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-22 06:13:50</t>
+          <t>2024-06-22 08:13:34</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -3380,7 +3671,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-22 06:14:16</t>
+          <t>2024-06-22 08:13:54</t>
         </is>
       </c>
     </row>
@@ -3584,15 +3875,30 @@
     <row r="46">
       <c r="B46" s="1" t="inlineStr">
         <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M46" s="1" t="inlineStr">
         <is>
           <t>Western Union</t>
         </is>
@@ -3609,6 +3915,11 @@
           <t>SGD</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
@@ -3619,12 +3930,22 @@
           <t>SGD</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>SGD</t>
         </is>
@@ -3641,6 +3962,11 @@
           <t>CNY</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
@@ -3651,12 +3977,22 @@
           <t>CNY</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
@@ -3671,6 +4007,9 @@
       <c r="B49" t="n">
         <v>500</v>
       </c>
+      <c r="C49" t="n">
+        <v>500</v>
+      </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -3679,6 +4018,9 @@
       <c r="G49" t="n">
         <v>1000</v>
       </c>
+      <c r="H49" t="n">
+        <v>1000</v>
+      </c>
       <c r="K49" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -3687,6 +4029,9 @@
       <c r="L49" t="n">
         <v>5000</v>
       </c>
+      <c r="M49" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3696,7 +4041,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-06-22 06:17:06</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:16:29</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
@@ -3706,7 +4056,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-06-22 06:17:29</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:16:47</t>
         </is>
       </c>
       <c r="K50" s="1" t="inlineStr">
@@ -3716,7 +4071,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2024-06-22 06:17:54</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:17:11</t>
         </is>
       </c>
     </row>
@@ -3727,6 +4087,9 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>5.3599</v>
+      </c>
+      <c r="C51" t="n">
         <v>5.3911</v>
       </c>
       <c r="F51" s="1" t="inlineStr">
@@ -3735,6 +4098,9 @@
         </is>
       </c>
       <c r="G51" t="n">
+        <v>5.3599</v>
+      </c>
+      <c r="H51" t="n">
         <v>5.3911</v>
       </c>
       <c r="K51" s="1" t="inlineStr">
@@ -3743,6 +4109,9 @@
         </is>
       </c>
       <c r="L51" t="n">
+        <v>5.3599</v>
+      </c>
+      <c r="M51" t="n">
         <v>5.3504</v>
       </c>
     </row>
@@ -3753,6 +4122,9 @@
         </is>
       </c>
       <c r="B52" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="F52" s="1" t="inlineStr">
@@ -3761,6 +4133,9 @@
         </is>
       </c>
       <c r="G52" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="1" t="inlineStr">
@@ -3769,6 +4144,9 @@
         </is>
       </c>
       <c r="L52" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="M52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3779,6 +4157,9 @@
         </is>
       </c>
       <c r="B53" t="n">
+        <v>2629.6205</v>
+      </c>
+      <c r="C53" t="n">
         <v>2695.55</v>
       </c>
       <c r="F53" s="1" t="inlineStr">
@@ -3787,6 +4168,9 @@
         </is>
       </c>
       <c r="G53" t="n">
+        <v>5292.2045</v>
+      </c>
+      <c r="H53" t="n">
         <v>5391.1</v>
       </c>
       <c r="K53" s="1" t="inlineStr">
@@ -3795,21 +4179,39 @@
         </is>
       </c>
       <c r="L53" t="n">
+        <v>26593.0367</v>
+      </c>
+      <c r="M53" t="n">
         <v>26752</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="1" t="inlineStr">
         <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
           <t>Western Union</t>
         </is>
       </c>
       <c r="L55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M55" s="1" t="inlineStr">
         <is>
           <t>Western Union</t>
         </is>
@@ -3826,6 +4228,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
@@ -3836,12 +4243,22 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
@@ -3858,6 +4275,11 @@
           <t>CNY</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
@@ -3868,12 +4290,22 @@
           <t>CNY</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
@@ -3888,6 +4320,9 @@
       <c r="B58" t="n">
         <v>500</v>
       </c>
+      <c r="C58" t="n">
+        <v>500</v>
+      </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -3896,6 +4331,9 @@
       <c r="G58" t="n">
         <v>1000</v>
       </c>
+      <c r="H58" t="n">
+        <v>1000</v>
+      </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -3904,6 +4342,9 @@
       <c r="L58" t="n">
         <v>5000</v>
       </c>
+      <c r="M58" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3913,7 +4354,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-22 06:20:09</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:19:42</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -3923,7 +4369,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-22 06:20:47</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:20:15</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -3933,7 +4384,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-22 06:21:06</t>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:20:34</t>
         </is>
       </c>
     </row>
@@ -3944,6 +4400,9 @@
         </is>
       </c>
       <c r="B60" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="C60" t="n">
         <v>7.0935</v>
       </c>
       <c r="F60" s="1" t="inlineStr">
@@ -3952,6 +4411,9 @@
         </is>
       </c>
       <c r="G60" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="H60" t="n">
         <v>7.0935</v>
       </c>
       <c r="K60" s="1" t="inlineStr">
@@ -3960,6 +4422,9 @@
         </is>
       </c>
       <c r="L60" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="M60" t="n">
         <v>7.0935</v>
       </c>
     </row>
@@ -3970,6 +4435,9 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C61" t="n">
         <v>1.99</v>
       </c>
       <c r="F61" s="1" t="inlineStr">
@@ -3978,6 +4446,9 @@
         </is>
       </c>
       <c r="G61" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.99</v>
       </c>
       <c r="K61" s="1" t="inlineStr">
@@ -3986,6 +4457,9 @@
         </is>
       </c>
       <c r="L61" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="M61" t="n">
         <v>1.99</v>
       </c>
     </row>
@@ -3996,6 +4470,9 @@
         </is>
       </c>
       <c r="B62" t="n">
+        <v>3559.3422</v>
+      </c>
+      <c r="C62" t="n">
         <v>3532.6339</v>
       </c>
       <c r="F62" s="1" t="inlineStr">
@@ -4004,6 +4481,9 @@
         </is>
       </c>
       <c r="G62" t="n">
+        <v>7153.4646</v>
+      </c>
+      <c r="H62" t="n">
         <v>7079.3839</v>
       </c>
       <c r="K62" s="1" t="inlineStr">
@@ -4012,7 +4492,6830 @@
         </is>
       </c>
       <c r="L62" t="n">
+        <v>35905.8628</v>
+      </c>
+      <c r="M62" t="n">
         <v>35453.3839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:16:39</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:17:10</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:17:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>22.7513</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.6619</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>22.7513</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22.6619</v>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>22.7513</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22.7074</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>40.08</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>190.85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45019.1349</v>
+      </c>
+      <c r="C8" t="n">
+        <v>44983.8715</v>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>90093.3279</v>
+      </c>
+      <c r="H8" t="n">
+        <v>90307.6715</v>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>450683.9144</v>
+      </c>
+      <c r="M8" t="n">
+        <v>453807.389</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>700</v>
+      </c>
+      <c r="C13" t="n">
+        <v>700</v>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:11:42</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:12:13</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:12:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>55.4967</v>
+      </c>
+      <c r="C15" t="n">
+        <v>55.8251</v>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>55.4967</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55.8251</v>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>55.4967</v>
+      </c>
+      <c r="M15" t="n">
+        <v>55.4921</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>38561.327</v>
+      </c>
+      <c r="C17" t="n">
+        <v>39077.57</v>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>82720.0512</v>
+      </c>
+      <c r="H17" t="n">
+        <v>83737.64999999999</v>
+      </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>413910.4826</v>
+      </c>
+      <c r="M17" t="n">
+        <v>416190.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BHD</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>BHD</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>BHD</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>400</v>
+      </c>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:11:39</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:12:03</t>
+        </is>
+      </c>
+      <c r="K23" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:12:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>221.6777</v>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>221.6777</v>
+      </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>221.6777</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>44003.0234</v>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>88338.5634</v>
+      </c>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>443022.8834</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K30" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>700</v>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>61.0311</v>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>61.0311</v>
+      </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>61.0311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>42333.6122</v>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>90856.99860000001</v>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>454785.4479</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>500</v>
+      </c>
+      <c r="C40" t="n">
+        <v>500</v>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:20:11</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:20:28</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:20:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>105.658</v>
+      </c>
+      <c r="C42" t="n">
+        <v>106.5443</v>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>105.658</v>
+      </c>
+      <c r="H42" t="n">
+        <v>106.5443</v>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>105.658</v>
+      </c>
+      <c r="M42" t="n">
+        <v>105.5103</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>52490.8944</v>
+      </c>
+      <c r="C44" t="n">
+        <v>53272.15</v>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>105056.806</v>
+      </c>
+      <c r="H44" t="n">
+        <v>106544.3</v>
+      </c>
+      <c r="K44" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>525585.1552</v>
+      </c>
+      <c r="M44" t="n">
+        <v>527551.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="K50" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="K52" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="K53" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="K56" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K57" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K58" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:08</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:26</t>
+        </is>
+      </c>
+      <c r="K59" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>17.7349</v>
+      </c>
+      <c r="C60" t="n">
+        <v>17.7267</v>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>17.7349</v>
+      </c>
+      <c r="H60" t="n">
+        <v>17.7267</v>
+      </c>
+      <c r="K60" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>17.7349</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>181.35</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>43936.2639</v>
+      </c>
+      <c r="C62" t="n">
+        <v>44316.75</v>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>87960.84759999999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>88633.5</v>
+      </c>
+      <c r="K62" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>440156.2759</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L64" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>QAR</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>QAR</t>
+        </is>
+      </c>
+      <c r="K65" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>QAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K66" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K67" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:26</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:55</t>
+        </is>
+      </c>
+      <c r="K68" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>22.8279</v>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>22.8279</v>
+      </c>
+      <c r="K69" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>22.8279</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>20</v>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>20</v>
+      </c>
+      <c r="K70" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>33785.292</v>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>68027.14200000001</v>
+      </c>
+      <c r="K71" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>341961.942</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L73" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="K74" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K75" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K76" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:15:21</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:15:43</t>
+        </is>
+      </c>
+      <c r="K77" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:16:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>21.9646</v>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>21.9646</v>
+      </c>
+      <c r="K78" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>21.9646</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>43929.2</v>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>87858.39999999999</v>
+      </c>
+      <c r="K80" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>439292</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H82" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M82" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="K83" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K84" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>500</v>
+      </c>
+      <c r="C85" t="n">
+        <v>500</v>
+      </c>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K85" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:16:24</t>
+        </is>
+      </c>
+      <c r="F86" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:16:45</t>
+        </is>
+      </c>
+      <c r="K86" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>61.6866</v>
+      </c>
+      <c r="C87" t="n">
+        <v>61.7217</v>
+      </c>
+      <c r="F87" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>61.6866</v>
+      </c>
+      <c r="H87" t="n">
+        <v>61.7217</v>
+      </c>
+      <c r="K87" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>61.6866</v>
+      </c>
+      <c r="M87" t="n">
+        <v>61.5862</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>30642.2017</v>
+      </c>
+      <c r="C89" t="n">
+        <v>30860.85</v>
+      </c>
+      <c r="F89" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>61353.4924</v>
+      </c>
+      <c r="H89" t="n">
+        <v>61721.7</v>
+      </c>
+      <c r="K89" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>307042.584</v>
+      </c>
+      <c r="M89" t="n">
+        <v>307931</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G91" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H91" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L91" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M91" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F92" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K92" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="F93" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K93" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>500</v>
+      </c>
+      <c r="C94" t="n">
+        <v>500</v>
+      </c>
+      <c r="F94" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K94" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:18:40</t>
+        </is>
+      </c>
+      <c r="F95" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:19:05</t>
+        </is>
+      </c>
+      <c r="K95" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>83.5668</v>
+      </c>
+      <c r="C96" t="n">
+        <v>83.1546</v>
+      </c>
+      <c r="F96" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>83.5668</v>
+      </c>
+      <c r="H96" t="n">
+        <v>83.1546</v>
+      </c>
+      <c r="K96" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>83.5668</v>
+      </c>
+      <c r="M96" t="n">
+        <v>83.1546</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F97" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K97" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>40.33</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>41366.4017</v>
+      </c>
+      <c r="C98" t="n">
+        <v>41494.9769</v>
+      </c>
+      <c r="F98" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>82822.21980000001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>83072.2769</v>
+      </c>
+      <c r="K98" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>414463.751</v>
+      </c>
+      <c r="M98" t="n">
+        <v>415690.6769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:17:10</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:17:42</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:18:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16.0236</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.9914</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>16.0236</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.9914</v>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>16.0236</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15.9914</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>213.24</v>
+      </c>
+      <c r="M7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>31659.4289</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31742.929</v>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>63370.1333</v>
+      </c>
+      <c r="H8" t="n">
+        <v>63725.729</v>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>317055.1275</v>
+      </c>
+      <c r="M8" t="n">
+        <v>319588.129</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>700</v>
+      </c>
+      <c r="C13" t="n">
+        <v>700</v>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:11:40</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:12:09</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:12:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>39.0859</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40.1896</v>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>39.0859</v>
+      </c>
+      <c r="H15" t="n">
+        <v>40.1896</v>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>39.0859</v>
+      </c>
+      <c r="M15" t="n">
+        <v>39.0797</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>27114.6705</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28132.72</v>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>58181.3164</v>
+      </c>
+      <c r="H17" t="n">
+        <v>60284.4</v>
+      </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>291180.9652</v>
+      </c>
+      <c r="M17" t="n">
+        <v>293097.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>700</v>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="K23" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>42.9837</v>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>42.9837</v>
+      </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>42.9837</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="K25" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>56.78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>29767.9316</v>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>63905.5861</v>
+      </c>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>319937.1355</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M28" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="K30" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>500</v>
+      </c>
+      <c r="C31" t="n">
+        <v>500</v>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:17:40</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:18:03</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:18:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>74.41379999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>75.1738</v>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>74.41379999999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>75.1738</v>
+      </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>74.41379999999999</v>
+      </c>
+      <c r="M33" t="n">
+        <v>74.3044</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>36912.9655</v>
+      </c>
+      <c r="C35" t="n">
+        <v>37586.9</v>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>73894.39169999999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>75173.8</v>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>369743.5688</v>
+      </c>
+      <c r="M35" t="n">
+        <v>371522</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>80000</v>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>150000</v>
+      </c>
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:13:07</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:13:28</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:13:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3681</v>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0.3681</v>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>0.3681</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>29448</v>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>55215</v>
+      </c>
+      <c r="K44" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>276075</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="K50" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="K52" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="K53" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L55" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M55" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="K56" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="K57" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K58" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M58" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:17</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:34</t>
+        </is>
+      </c>
+      <c r="K59" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>17.7349</v>
+      </c>
+      <c r="C60" t="n">
+        <v>12.4838</v>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>12.4905</v>
+      </c>
+      <c r="H60" t="n">
+        <v>12.4838</v>
+      </c>
+      <c r="K60" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>12.4905</v>
+      </c>
+      <c r="M60" t="n">
+        <v>12.4838</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>181.35</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>46.98</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>209.77</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>41121.0259</v>
+      </c>
+      <c r="C62" t="n">
+        <v>31209.5</v>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>61865.6963</v>
+      </c>
+      <c r="H62" t="n">
+        <v>62419</v>
+      </c>
+      <c r="K62" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>309642.3678</v>
+      </c>
+      <c r="M62" t="n">
+        <v>312095</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L64" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>QAR</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>QAR</t>
+        </is>
+      </c>
+      <c r="K65" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>QAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="K66" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K67" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:15:25</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:15:53</t>
+        </is>
+      </c>
+      <c r="K68" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:16:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>16.044</v>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>16.044</v>
+      </c>
+      <c r="K69" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>16.044</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>20</v>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>20</v>
+      </c>
+      <c r="K70" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>23745.12</v>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>47811.12</v>
+      </c>
+      <c r="K71" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>240339.12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L73" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="K74" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="K75" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K76" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:15:51</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:16:13</t>
+        </is>
+      </c>
+      <c r="K77" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:16:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>15.5782</v>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>15.5782</v>
+      </c>
+      <c r="K78" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>15.5782</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>31156.4</v>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>62312.8</v>
+      </c>
+      <c r="K80" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>311564</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="H82" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L82" s="1" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="M82" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K83" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="K84" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>500</v>
+      </c>
+      <c r="C85" t="n">
+        <v>500</v>
+      </c>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K85" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:19:01</t>
+        </is>
+      </c>
+      <c r="F86" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:19:35</t>
+        </is>
+      </c>
+      <c r="K86" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:09:32</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:20:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>58.8554</v>
+      </c>
+      <c r="C87" t="n">
+        <v>57.7426</v>
+      </c>
+      <c r="F87" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>58.8554</v>
+      </c>
+      <c r="H87" t="n">
+        <v>57.7426</v>
+      </c>
+      <c r="K87" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>58.8554</v>
+      </c>
+      <c r="M87" t="n">
+        <v>57.7426</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F88" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K88" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>46.01</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>29086.9272</v>
+      </c>
+      <c r="C89" t="n">
+        <v>28814.1348</v>
+      </c>
+      <c r="F89" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>58252.1322</v>
+      </c>
+      <c r="H89" t="n">
+        <v>57685.4348</v>
+      </c>
+      <c r="K89" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>291569.063</v>
+      </c>
+      <c r="M89" t="n">
+        <v>288655.8348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>700</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:11:42</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:12:11</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:12:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17136.73</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>17136.73</v>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>16900.129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11995711</v>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>25705095</v>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>126750967.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="K23" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="K25" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="K30" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>500</v>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:18:10</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:18:32</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>31837.5249</v>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>31837.5249</v>
+      </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>15918762.45</v>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>31837524.9</v>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>80000</v>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>150000</v>
+      </c>
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:13:10</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:13:33</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:13:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>157.9011</v>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>157.9011</v>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>157.9011</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>880</v>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>880</v>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>12493135.032</v>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>23546212.032</v>
+      </c>
+      <c r="K44" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>118192131.372</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="K50" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="K52" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="K53" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="L55" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="K56" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="K57" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K58" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:21</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:39</t>
+        </is>
+      </c>
+      <c r="K59" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:14:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5366.2717</v>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>5366.2717</v>
+      </c>
+      <c r="K60" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>5366.2717</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="K61" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>13388847.8915</v>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>26804527.1415</v>
+      </c>
+      <c r="K62" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>134129961.1415</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>Western Union</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K65" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="K66" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>500</v>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K67" s="1" t="inlineStr">
+        <is>
+          <t>ticket_size</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:19:37</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2024-06-22 08:20:12</t>
+        </is>
+      </c>
+      <c r="K68" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>25095.672</v>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>25095.672</v>
+      </c>
+      <c r="K69" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K70" s="1" t="inlineStr">
+        <is>
+          <t>service_fee</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>12522991.2847</v>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>25070827.2847</v>
+      </c>
+      <c r="K71" s="1" t="inlineStr">
+        <is>
+          <t>amount_receive</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -606,12 +606,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:47</t>
+          <t>2024-06-23 09:28:54</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:18</t>
+          <t>2024-06-23 09:29:25</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:50</t>
+          <t>2024-06-23 09:29:54</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
         <v>31.9476</v>
       </c>
       <c r="C6" t="n">
-        <v>32.2111</v>
+        <v>32.2736</v>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>31.9476</v>
       </c>
       <c r="H6" t="n">
-        <v>32.2111</v>
+        <v>32.2736</v>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>31.9476</v>
       </c>
       <c r="M6" t="n">
-        <v>32.2111</v>
+        <v>32.2736</v>
       </c>
     </row>
     <row r="7">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.48</v>
+        <v>116869.65</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62729.7516</v>
+        <v>-3669809.6303</v>
       </c>
       <c r="C8" t="n">
-        <v>63939.0335</v>
+        <v>64063.096</v>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         <v>125784.0907</v>
       </c>
       <c r="H8" t="n">
-        <v>128361.2335</v>
+        <v>128610.296</v>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>630215.2898</v>
       </c>
       <c r="M8" t="n">
-        <v>643738.8334999999</v>
+        <v>644987.8959999999</v>
       </c>
     </row>
     <row r="10">
@@ -865,7 +865,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:47</t>
+          <t>2024-06-23 09:24:34</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:15</t>
+          <t>2024-06-23 09:24:59</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:38</t>
+          <t>2024-06-23 09:25:23</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:39</t>
+          <t>2024-06-23 09:29:33</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:58</t>
+          <t>2024-06-23 09:29:55</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:25</t>
+          <t>2024-06-23 09:30:31</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
         <v>148.365</v>
       </c>
       <c r="C24" t="n">
-        <v>149.6694</v>
+        <v>149.9597</v>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>148.365</v>
       </c>
       <c r="H24" t="n">
-        <v>149.6694</v>
+        <v>149.9597</v>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>148.365</v>
       </c>
       <c r="M24" t="n">
-        <v>149.6694</v>
+        <v>149.9597</v>
       </c>
     </row>
     <row r="25">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.42</v>
+        <v>7469.13</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>73081.6317</v>
+        <v>-1033974.9725</v>
       </c>
       <c r="C26" t="n">
-        <v>74834.7</v>
+        <v>74979.85000000001</v>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>146614.293</v>
       </c>
       <c r="H26" t="n">
-        <v>149669.4</v>
+        <v>149959.7</v>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>734884.4852999999</v>
       </c>
       <c r="M26" t="n">
-        <v>748347</v>
+        <v>749798.5</v>
       </c>
     </row>
     <row r="29">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:11</t>
+          <t>2024-06-23 09:26:02</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:28</t>
+          <t>2024-06-23 09:26:30</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:49</t>
+          <t>2024-06-23 09:26:54</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
         <v>24.9034</v>
       </c>
       <c r="C42" t="n">
-        <v>25.0201</v>
+        <v>25.0686</v>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>24.9034</v>
       </c>
       <c r="H42" t="n">
-        <v>25.0201</v>
+        <v>25.0686</v>
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>24.9034</v>
       </c>
       <c r="M42" t="n">
-        <v>25.0201</v>
+        <v>25.0686</v>
       </c>
     </row>
     <row r="43">
@@ -1687,7 +1687,7 @@
         <v>61123.403</v>
       </c>
       <c r="C44" t="n">
-        <v>62300.049</v>
+        <v>62420.814</v>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>122708.5151</v>
       </c>
       <c r="H44" t="n">
-        <v>124850.299</v>
+        <v>125092.314</v>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>615391.4039</v>
       </c>
       <c r="M44" t="n">
-        <v>625252.299</v>
+        <v>626464.314</v>
       </c>
     </row>
     <row r="47">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:15:16</t>
+          <t>2024-06-23 09:27:05</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:15:40</t>
+          <t>2024-06-23 09:27:30</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:02</t>
+          <t>2024-06-23 09:27:54</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:15:24</t>
+          <t>2024-06-23 09:27:24</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:15:48</t>
+          <t>2024-06-23 09:27:49</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:09</t>
+          <t>2024-06-23 09:28:14</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>31.2523</v>
+        <v>31.3129</v>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>31.2523</v>
+        <v>31.3129</v>
       </c>
       <c r="K69" s="1" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>31.2523</v>
+        <v>31.3129</v>
       </c>
     </row>
     <row r="70">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>62035.8155</v>
+        <v>62156.1065</v>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>124540.4155</v>
+        <v>124781.9065</v>
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>624577.2155</v>
+        <v>625788.3064999999</v>
       </c>
     </row>
     <row r="73">
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:54</t>
+          <t>2024-06-23 09:31:05</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
@@ -2449,12 +2449,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:19:28</t>
+          <t>2024-06-23 09:31:37</t>
         </is>
       </c>
       <c r="K77" s="1" t="inlineStr">
@@ -2464,12 +2464,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:20:00</t>
+          <t>2024-06-23 09:32:10</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
         <v>117.345</v>
       </c>
       <c r="C78" t="n">
-        <v>117.3645</v>
+        <v>117.5922</v>
       </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>117.345</v>
       </c>
       <c r="H78" t="n">
-        <v>117.3645</v>
+        <v>117.5922</v>
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>117.345</v>
       </c>
       <c r="M78" t="n">
-        <v>117.3645</v>
+        <v>117.5922</v>
       </c>
     </row>
     <row r="79">
@@ -2553,7 +2553,7 @@
         <v>57533.08</v>
       </c>
       <c r="C80" t="n">
-        <v>58566.0591</v>
+        <v>58679.6837</v>
       </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>115524.979</v>
       </c>
       <c r="H80" t="n">
-        <v>117248.3091</v>
+        <v>117475.7837</v>
       </c>
       <c r="K80" s="1" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>579454.3038</v>
       </c>
       <c r="M80" t="n">
-        <v>586706.3091</v>
+        <v>587844.5837</v>
       </c>
     </row>
   </sheetData>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:11:42</t>
+          <t>2024-06-23 09:23:27</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -2781,12 +2781,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:10</t>
+          <t>2024-06-23 09:23:58</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:36</t>
+          <t>2024-06-23 09:24:24</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.33</v>
+        <v>6556.18</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3315.9447</v>
+        <v>-28238.5</v>
       </c>
       <c r="C8" t="n">
         <v>3360.84</v>
@@ -3079,12 +3079,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:07</t>
+          <t>2024-06-23 09:30:17</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -3094,12 +3094,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:28</t>
+          <t>2024-06-23 09:30:38</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:52</t>
+          <t>2024-06-23 09:31:01</t>
         </is>
       </c>
     </row>
@@ -3392,12 +3392,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:07</t>
+          <t>2024-06-23 09:24:48</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -3407,12 +3407,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:27</t>
+          <t>2024-06-23 09:25:04</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3422,12 +3422,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:44</t>
+          <t>2024-06-23 09:25:22</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>215381.82</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-192885.8308</v>
+        <v>7351.1384</v>
       </c>
       <c r="H26" t="n">
         <v>7341.009</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:10</t>
+          <t>2024-06-23 09:24:53</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:34</t>
+          <t>2024-06-23 09:25:11</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:54</t>
+          <t>2024-06-23 09:25:29</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:29</t>
+          <t>2024-06-23 09:28:50</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:47</t>
+          <t>2024-06-23 09:29:11</t>
         </is>
       </c>
       <c r="K50" s="1" t="inlineStr">
@@ -4071,12 +4071,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:11</t>
+          <t>2024-06-23 09:29:33</t>
         </is>
       </c>
     </row>
@@ -4354,12 +4354,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:19:42</t>
+          <t>2024-06-23 09:31:46</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:20:15</t>
+          <t>2024-06-23 09:32:25</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -4384,12 +4384,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:20:34</t>
+          <t>2024-06-23 09:32:47</t>
         </is>
       </c>
     </row>
@@ -4686,12 +4686,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:39</t>
+          <t>2024-06-23 09:28:54</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:10</t>
+          <t>2024-06-23 09:29:26</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:41</t>
+          <t>2024-06-23 09:29:58</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:11:42</t>
+          <t>2024-06-23 09:23:26</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -5014,12 +5014,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:13</t>
+          <t>2024-06-23 09:23:56</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -5029,12 +5029,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:40</t>
+          <t>2024-06-23 09:24:21</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:11:39</t>
+          <t>2024-06-23 09:23:24</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:03</t>
+          <t>2024-06-23 09:23:50</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:24</t>
+          <t>2024-06-23 09:24:11</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.36</v>
+        <v>5101.97</v>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42333.6122</v>
+        <v>-268657.0713</v>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:20:11</t>
+          <t>2024-06-23 09:32:10</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:20:28</t>
+          <t>2024-06-23 09:32:31</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:20:44</t>
+          <t>2024-06-23 09:32:50</t>
         </is>
       </c>
     </row>
@@ -6160,12 +6160,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:08</t>
+          <t>2024-06-23 09:26:02</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:26</t>
+          <t>2024-06-23 09:26:28</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:26</t>
+          <t>2024-06-23 09:26:09</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:55</t>
+          <t>2024-06-23 09:26:40</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:15:24</t>
+          <t>2024-06-23 09:27:08</t>
         </is>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:15:21</t>
+          <t>2024-06-23 09:27:23</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:15:43</t>
+          <t>2024-06-23 09:27:49</t>
         </is>
       </c>
       <c r="K77" s="1" t="inlineStr">
@@ -6642,7 +6642,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:04</t>
+          <t>2024-06-23 09:28:14</t>
         </is>
       </c>
     </row>
@@ -6893,12 +6893,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:24</t>
+          <t>2024-06-23 09:28:17</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
@@ -6908,12 +6908,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:45</t>
+          <t>2024-06-23 09:28:48</t>
         </is>
       </c>
       <c r="K86" s="1" t="inlineStr">
@@ -6923,12 +6923,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:10</t>
+          <t>2024-06-23 09:29:08</t>
         </is>
       </c>
     </row>
@@ -7206,12 +7206,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:40</t>
+          <t>2024-06-23 09:30:31</t>
         </is>
       </c>
       <c r="F95" s="1" t="inlineStr">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2024-06-22 08:19:05</t>
+          <t>2024-06-23 09:31:01</t>
         </is>
       </c>
       <c r="K95" s="1" t="inlineStr">
@@ -7236,12 +7236,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2024-06-22 08:19:39</t>
+          <t>2024-06-23 09:31:38</t>
         </is>
       </c>
     </row>
@@ -7538,12 +7538,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:10</t>
+          <t>2024-06-23 09:28:58</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -7553,12 +7553,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:42</t>
+          <t>2024-06-23 09:29:27</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -7568,12 +7568,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:12</t>
+          <t>2024-06-23 09:29:57</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.0236</v>
+        <v>22.7513</v>
       </c>
       <c r="C6" t="n">
         <v>15.9914</v>
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.2</v>
+        <v>190.85</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31659.4289</v>
+        <v>41160.5144</v>
       </c>
       <c r="C8" t="n">
         <v>31742.929</v>
@@ -7851,12 +7851,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:11:40</t>
+          <t>2024-06-23 09:23:24</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -7866,12 +7866,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:09</t>
+          <t>2024-06-23 09:23:53</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -7881,12 +7881,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:36</t>
+          <t>2024-06-23 09:24:18</t>
         </is>
       </c>
     </row>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
     </row>
@@ -8381,12 +8381,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:17:40</t>
+          <t>2024-06-23 09:29:59</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -8396,12 +8396,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:03</t>
+          <t>2024-06-23 09:30:24</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -8411,12 +8411,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:19</t>
+          <t>2024-06-23 09:30:45</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:07</t>
+          <t>2024-06-23 09:24:44</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:28</t>
+          <t>2024-06-23 09:25:00</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:47</t>
+          <t>2024-06-23 09:25:20</t>
         </is>
       </c>
     </row>
@@ -9030,12 +9030,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:17</t>
+          <t>2024-06-23 09:25:52</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -9045,12 +9045,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:34</t>
+          <t>2024-06-23 09:26:08</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -9060,12 +9060,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:53</t>
+          <t>2024-06-23 09:26:33</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17.7349</v>
+        <v>12.4905</v>
       </c>
       <c r="C60" t="n">
         <v>12.4838</v>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>181.35</v>
+        <v>26.63</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>41121.0259</v>
+        <v>30893.628</v>
       </c>
       <c r="C62" t="n">
         <v>31209.5</v>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:15:25</t>
+          <t>2024-06-23 09:27:21</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:15:53</t>
+          <t>2024-06-23 09:27:49</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:18</t>
+          <t>2024-06-23 09:28:15</t>
         </is>
       </c>
     </row>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:15:51</t>
+          <t>2024-06-23 09:27:30</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
@@ -9516,7 +9516,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:13</t>
+          <t>2024-06-23 09:27:55</t>
         </is>
       </c>
       <c r="K77" s="1" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-06-22 08:16:37</t>
+          <t>2024-06-23 09:28:19</t>
         </is>
       </c>
     </row>
@@ -9777,12 +9777,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:19:01</t>
+          <t>2024-06-23 09:31:23</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
@@ -9792,12 +9792,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:19:35</t>
+          <t>2024-06-23 09:31:56</t>
         </is>
       </c>
       <c r="K86" s="1" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:09:32</t>
+          <t>2024-06-23 09:21:16</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-06-22 08:20:12</t>
+          <t>2024-06-23 09:32:26</t>
         </is>
       </c>
     </row>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:11:42</t>
+          <t>2024-06-23 09:23:28</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:11</t>
+          <t>2024-06-23 09:23:58</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-22 08:12:38</t>
+          <t>2024-06-23 09:24:25</t>
         </is>
       </c>
     </row>
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:10</t>
+          <t>2024-06-23 09:30:25</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-22 08:18:32</t>
+          <t>2024-06-23 09:30:48</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:10</t>
+          <t>2024-06-23 09:24:53</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:33</t>
+          <t>2024-06-23 09:25:13</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-22 08:13:54</t>
+          <t>2024-06-23 09:25:31</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:21</t>
+          <t>2024-06-23 09:26:02</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:39</t>
+          <t>2024-06-23 09:26:30</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-22 08:14:55</t>
+          <t>2024-06-23 09:26:55</t>
         </is>
       </c>
     </row>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:19:37</t>
+          <t>2024-06-23 09:31:50</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-06-22 08:20:12</t>
+          <t>2024-06-23 09:32:22</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -606,12 +606,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:28:54</t>
+          <t>2024-06-23 10:53:21</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:29:25</t>
+          <t>2024-06-23 10:53:49</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:29:54</t>
+          <t>2024-06-23 10:54:17</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116869.65</v>
+        <v>36.48</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3669809.6303</v>
+        <v>62729.7516</v>
       </c>
       <c r="C8" t="n">
         <v>64063.096</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:34</t>
+          <t>2024-06-23 10:49:21</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:59</t>
+          <t>2024-06-23 10:49:45</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:25:23</t>
+          <t>2024-06-23 10:50:08</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:29:33</t>
+          <t>2024-06-23 10:53:35</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:29:55</t>
+          <t>2024-06-23 10:53:54</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:30:31</t>
+          <t>2024-06-23 10:54:25</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7469.13</v>
+        <v>7.42</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1033974.9725</v>
+        <v>73081.6317</v>
       </c>
       <c r="C26" t="n">
         <v>74979.85000000001</v>
@@ -1568,12 +1568,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:02</t>
+          <t>2024-06-23 10:50:43</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:30</t>
+          <t>2024-06-23 10:51:01</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:54</t>
+          <t>2024-06-23 10:51:23</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:05</t>
+          <t>2024-06-23 10:51:52</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:30</t>
+          <t>2024-06-23 10:52:16</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:54</t>
+          <t>2024-06-23 10:52:38</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:24</t>
+          <t>2024-06-23 10:52:00</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:49</t>
+          <t>2024-06-23 10:52:25</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:28:14</t>
+          <t>2024-06-23 10:52:47</t>
         </is>
       </c>
     </row>
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:31:05</t>
+          <t>2024-06-23 10:55:05</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
@@ -2449,12 +2449,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:31:37</t>
+          <t>2024-06-23 10:55:40</t>
         </is>
       </c>
       <c r="K77" s="1" t="inlineStr">
@@ -2464,12 +2464,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:32:10</t>
+          <t>2024-06-23 10:56:18</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:23:27</t>
+          <t>2024-06-23 10:47:53</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -2781,12 +2781,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:23:58</t>
+          <t>2024-06-23 10:48:23</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:24</t>
+          <t>2024-06-23 10:48:54</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6556.18</v>
+        <v>12.33</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-28238.5</v>
+        <v>3315.9447</v>
       </c>
       <c r="C8" t="n">
         <v>3360.84</v>
@@ -3079,12 +3079,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:30:17</t>
+          <t>2024-06-23 10:54:11</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -3094,12 +3094,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:30:38</t>
+          <t>2024-06-23 10:54:28</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:31:01</t>
+          <t>2024-06-23 10:54:52</t>
         </is>
       </c>
     </row>
@@ -3392,12 +3392,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:48</t>
+          <t>2024-06-23 10:49:30</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -3407,12 +3407,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:25:04</t>
+          <t>2024-06-23 10:49:57</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3422,12 +3422,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:25:22</t>
+          <t>2024-06-23 10:50:22</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:53</t>
+          <t>2024-06-23 10:49:28</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:25:11</t>
+          <t>2024-06-23 10:49:52</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:25:29</t>
+          <t>2024-06-23 10:50:16</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-06-23 09:28:50</t>
+          <t>2024-06-23 10:53:09</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2024-06-23 09:29:11</t>
+          <t>2024-06-23 10:53:28</t>
         </is>
       </c>
       <c r="K50" s="1" t="inlineStr">
@@ -4071,12 +4071,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2024-06-23 09:29:33</t>
+          <t>2024-06-23 10:53:49</t>
         </is>
       </c>
     </row>
@@ -4354,12 +4354,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:31:46</t>
+          <t>2024-06-23 10:55:34</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:32:25</t>
+          <t>2024-06-23 10:56:12</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -4384,12 +4384,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:32:47</t>
+          <t>2024-06-23 10:56:43</t>
         </is>
       </c>
     </row>
@@ -4523,29 +4523,14 @@
           <t>Wise</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wise</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Western Union</t>
         </is>
       </c>
     </row>
@@ -4560,37 +4545,22 @@
           <t>AED</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>country_send</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>AED</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>country_send</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>country_send</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>AED</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>AED</t>
         </is>
@@ -4607,37 +4577,22 @@
           <t>INR</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>country_receive</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>country_receive</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>country_receive</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
@@ -4652,9 +4607,6 @@
       <c r="B4" t="n">
         <v>2000</v>
       </c>
-      <c r="C4" t="n">
-        <v>2000</v>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -4663,9 +4615,6 @@
       <c r="G4" t="n">
         <v>4000</v>
       </c>
-      <c r="H4" t="n">
-        <v>4000</v>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>ticket_size</t>
@@ -4674,9 +4623,6 @@
       <c r="L4" t="n">
         <v>20000</v>
       </c>
-      <c r="M4" t="n">
-        <v>20000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4686,12 +4632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-06-23 09:28:54</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -4701,12 +4642,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2024-06-23 09:29:26</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -4716,12 +4652,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024-06-23 09:29:58</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
     </row>
@@ -4734,9 +4665,6 @@
       <c r="B6" t="n">
         <v>22.7513</v>
       </c>
-      <c r="C6" t="n">
-        <v>22.6619</v>
-      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
@@ -4745,9 +4673,6 @@
       <c r="G6" t="n">
         <v>22.7513</v>
       </c>
-      <c r="H6" t="n">
-        <v>22.6619</v>
-      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
           <t>fx_rate_3</t>
@@ -4756,9 +4681,6 @@
       <c r="L6" t="n">
         <v>22.7513</v>
       </c>
-      <c r="M6" t="n">
-        <v>22.7074</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4769,9 +4691,6 @@
       <c r="B7" t="n">
         <v>21.25</v>
       </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
@@ -4780,9 +4699,6 @@
       <c r="G7" t="n">
         <v>40.08</v>
       </c>
-      <c r="H7" t="n">
-        <v>15</v>
-      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>service_fee</t>
@@ -4791,9 +4707,6 @@
       <c r="L7" t="n">
         <v>190.85</v>
       </c>
-      <c r="M7" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4804,9 +4717,6 @@
       <c r="B8" t="n">
         <v>45019.1349</v>
       </c>
-      <c r="C8" t="n">
-        <v>44983.8715</v>
-      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
@@ -4815,9 +4725,6 @@
       <c r="G8" t="n">
         <v>90093.3279</v>
       </c>
-      <c r="H8" t="n">
-        <v>90307.6715</v>
-      </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
           <t>amount_receive</t>
@@ -4826,9 +4733,6 @@
       <c r="L8" t="n">
         <v>450683.9144</v>
       </c>
-      <c r="M8" t="n">
-        <v>453807.389</v>
-      </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
@@ -4999,12 +4903,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:23:26</t>
+          <t>2024-06-23 10:47:52</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -5014,12 +4918,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:23:56</t>
+          <t>2024-06-23 10:48:24</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -5029,12 +4933,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:21</t>
+          <t>2024-06-23 10:48:55</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5162,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:23:24</t>
+          <t>2024-06-23 10:47:52</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -5268,7 +5172,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:23:50</t>
+          <t>2024-06-23 10:48:23</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -5278,7 +5182,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:11</t>
+          <t>2024-06-23 10:48:53</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5379,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -5485,7 +5389,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -5495,7 +5399,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5436,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5101.97</v>
+        <v>6.36</v>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
@@ -5558,7 +5462,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-268657.0713</v>
+        <v>42333.6122</v>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
@@ -5746,12 +5650,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:32:10</t>
+          <t>2024-06-23 10:56:41</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -5761,12 +5665,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:32:31</t>
+          <t>2024-06-23 10:56:56</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -5776,12 +5680,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:32:50</t>
+          <t>2024-06-23 10:57:11</t>
         </is>
       </c>
     </row>
@@ -6160,12 +6064,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:02</t>
+          <t>2024-06-23 10:50:31</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -6175,12 +6079,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:28</t>
+          <t>2024-06-23 10:50:56</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -6190,7 +6094,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6309,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:09</t>
+          <t>2024-06-23 10:50:56</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
@@ -6415,7 +6319,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:40</t>
+          <t>2024-06-23 10:51:26</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">
@@ -6425,7 +6329,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:08</t>
+          <t>2024-06-23 10:51:54</t>
         </is>
       </c>
     </row>
@@ -6622,7 +6526,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:23</t>
+          <t>2024-06-23 10:51:56</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
@@ -6632,7 +6536,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:49</t>
+          <t>2024-06-23 10:52:21</t>
         </is>
       </c>
       <c r="K77" s="1" t="inlineStr">
@@ -6642,7 +6546,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:28:14</t>
+          <t>2024-06-23 10:52:43</t>
         </is>
       </c>
     </row>
@@ -6893,12 +6797,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:28:17</t>
+          <t>2024-06-23 10:52:59</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
@@ -6908,12 +6812,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:28:48</t>
+          <t>2024-06-23 10:53:18</t>
         </is>
       </c>
       <c r="K86" s="1" t="inlineStr">
@@ -6923,12 +6827,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:29:08</t>
+          <t>2024-06-23 10:53:40</t>
         </is>
       </c>
     </row>
@@ -7206,12 +7110,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2024-06-23 09:30:31</t>
+          <t>2024-06-23 10:55:00</t>
         </is>
       </c>
       <c r="F95" s="1" t="inlineStr">
@@ -7221,12 +7125,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2024-06-23 09:31:01</t>
+          <t>2024-06-23 10:55:35</t>
         </is>
       </c>
       <c r="K95" s="1" t="inlineStr">
@@ -7236,12 +7140,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2024-06-23 09:31:38</t>
+          <t>2024-06-23 10:56:12</t>
         </is>
       </c>
     </row>
@@ -7538,12 +7442,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:28:58</t>
+          <t>2024-06-23 10:53:32</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -7553,12 +7457,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:29:27</t>
+          <t>2024-06-23 10:54:01</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -7568,12 +7472,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:29:57</t>
+          <t>2024-06-23 10:54:27</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.7513</v>
+        <v>16.0236</v>
       </c>
       <c r="C6" t="n">
         <v>15.9914</v>
@@ -7619,7 +7523,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.85</v>
+        <v>24.2</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -7654,7 +7558,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41160.5144</v>
+        <v>31659.4289</v>
       </c>
       <c r="C8" t="n">
         <v>31742.929</v>
@@ -7851,12 +7755,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:23:24</t>
+          <t>2024-06-23 10:47:52</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -7866,12 +7770,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:23:53</t>
+          <t>2024-06-23 10:48:24</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -7881,12 +7785,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:18</t>
+          <t>2024-06-23 10:48:54</t>
         </is>
       </c>
     </row>
@@ -8110,7 +8014,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
@@ -8120,7 +8024,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -8130,7 +8034,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
     </row>
@@ -8381,12 +8285,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:29:59</t>
+          <t>2024-06-23 10:54:01</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -8396,12 +8300,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:30:24</t>
+          <t>2024-06-23 10:54:20</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -8411,12 +8315,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:30:45</t>
+          <t>2024-06-23 10:54:38</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8544,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:44</t>
+          <t>2024-06-23 10:49:28</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -8650,7 +8554,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:25:00</t>
+          <t>2024-06-23 10:49:54</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -8660,7 +8564,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:25:20</t>
+          <t>2024-06-23 10:50:19</t>
         </is>
       </c>
     </row>
@@ -9030,12 +8934,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:25:52</t>
+          <t>2024-06-23 10:50:51</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -9045,12 +8949,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:08</t>
+          <t>2024-06-23 10:51:09</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -9060,12 +8964,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:33</t>
+          <t>2024-06-23 10:51:27</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9193,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:21</t>
+          <t>2024-06-23 10:51:58</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
@@ -9299,7 +9203,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:49</t>
+          <t>2024-06-23 10:52:26</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">
@@ -9309,7 +9213,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:28:15</t>
+          <t>2024-06-23 10:52:51</t>
         </is>
       </c>
     </row>
@@ -9506,7 +9410,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:30</t>
+          <t>2024-06-23 10:52:20</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
@@ -9516,7 +9420,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:27:55</t>
+          <t>2024-06-23 10:52:41</t>
         </is>
       </c>
       <c r="K77" s="1" t="inlineStr">
@@ -9526,7 +9430,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-06-23 09:28:19</t>
+          <t>2024-06-23 10:53:04</t>
         </is>
       </c>
     </row>
@@ -9777,12 +9681,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:31:23</t>
+          <t>2024-06-23 10:55:16</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
@@ -9792,12 +9696,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:31:56</t>
+          <t>2024-06-23 10:55:48</t>
         </is>
       </c>
       <c r="K86" s="1" t="inlineStr">
@@ -9807,12 +9711,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:21:16</t>
+          <t>2024-06-23 10:45:33</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-06-23 09:32:26</t>
+          <t>2024-06-23 10:56:23</t>
         </is>
       </c>
     </row>
@@ -10055,7 +9959,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:23:28</t>
+          <t>2024-06-23 10:47:52</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -10065,7 +9969,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:23:58</t>
+          <t>2024-06-23 10:48:25</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -10075,7 +9979,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:25</t>
+          <t>2024-06-23 10:48:56</t>
         </is>
       </c>
     </row>
@@ -10492,7 +10396,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:30:25</t>
+          <t>2024-06-23 10:54:36</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -10502,7 +10406,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-06-23 09:30:48</t>
+          <t>2024-06-23 10:55:02</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -10695,7 +10599,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:24:53</t>
+          <t>2024-06-23 10:49:30</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
@@ -10705,7 +10609,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:25:13</t>
+          <t>2024-06-23 10:49:57</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -10715,7 +10619,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-23 09:25:31</t>
+          <t>2024-06-23 10:50:23</t>
         </is>
       </c>
     </row>
@@ -11031,7 +10935,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:02</t>
+          <t>2024-06-23 10:50:54</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
@@ -11041,7 +10945,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:30</t>
+          <t>2024-06-23 10:51:19</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
@@ -11051,7 +10955,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-06-23 09:26:55</t>
+          <t>2024-06-23 10:51:37</t>
         </is>
       </c>
     </row>
@@ -11230,7 +11134,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:31:50</t>
+          <t>2024-06-23 10:56:14</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
@@ -11240,7 +11144,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-06-23 09:32:22</t>
+          <t>2024-06-23 10:56:44</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -646,12 +646,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:00</t>
+          <t>2024-06-23 13:33:01</t>
         </is>
       </c>
       <c r="D5" s="2" t="n"/>
@@ -663,12 +663,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:28</t>
+          <t>2024-06-23 13:33:26</t>
         </is>
       </c>
       <c r="I5" s="2" t="n"/>
@@ -680,12 +680,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:56</t>
+          <t>2024-06-23 13:33:58</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>36.48</v>
+        <v>116869.65</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>15</v>
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>62729.7516</v>
+        <v>-3669809.6303</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>64063.096</v>
@@ -967,7 +967,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:00</t>
+          <t>2024-06-23 13:28:37</t>
         </is>
       </c>
       <c r="C14" s="2" t="n"/>
@@ -980,7 +980,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:26</t>
+          <t>2024-06-23 13:29:05</t>
         </is>
       </c>
       <c r="H14" s="2" t="n"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:50</t>
+          <t>2024-06-23 13:29:32</t>
         </is>
       </c>
       <c r="M14" s="2" t="n"/>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:29</t>
+          <t>2024-06-23 13:33:31</t>
         </is>
       </c>
       <c r="D23" s="2" t="n"/>
@@ -1317,12 +1317,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:48</t>
+          <t>2024-06-23 13:33:53</t>
         </is>
       </c>
       <c r="I23" s="2" t="n"/>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:17</t>
+          <t>2024-06-23 13:34:27</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>7.42</v>
+        <v>7469.13</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>73081.6317</v>
+        <v>-1033974.9725</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>74979.85000000001</v>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:19</t>
+          <t>2024-06-23 13:30:01</t>
         </is>
       </c>
       <c r="D41" s="2" t="n"/>
@@ -1899,12 +1899,12 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:37</t>
+          <t>2024-06-23 13:30:27</t>
         </is>
       </c>
       <c r="I41" s="2" t="n"/>
@@ -1916,12 +1916,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:59</t>
+          <t>2024-06-23 13:30:51</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:23</t>
+          <t>2024-06-23 13:31:19</t>
         </is>
       </c>
       <c r="C59" s="2" t="n"/>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:45</t>
+          <t>2024-06-23 13:31:42</t>
         </is>
       </c>
       <c r="H59" s="2" t="n"/>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:08</t>
+          <t>2024-06-23 13:32:05</t>
         </is>
       </c>
       <c r="M59" s="2" t="n"/>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:37</t>
+          <t>2024-06-23 13:31:33</t>
         </is>
       </c>
       <c r="C68" s="2" t="n"/>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:59</t>
+          <t>2024-06-23 13:31:59</t>
         </is>
       </c>
       <c r="H68" s="2" t="n"/>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:20</t>
+          <t>2024-06-23 13:32:21</t>
         </is>
       </c>
       <c r="M68" s="2" t="n"/>
@@ -3046,12 +3046,12 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:54</t>
+          <t>2024-06-23 13:35:05</t>
         </is>
       </c>
       <c r="D77" s="2" t="n"/>
@@ -3063,12 +3063,12 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:29:30</t>
+          <t>2024-06-23 13:35:41</t>
         </is>
       </c>
       <c r="I77" s="2" t="n"/>
@@ -3080,12 +3080,12 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:30:06</t>
+          <t>2024-06-23 13:36:14</t>
         </is>
       </c>
     </row>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:21:49</t>
+          <t>2024-06-23 13:27:24</t>
         </is>
       </c>
       <c r="D5" s="2" t="n"/>
@@ -3445,12 +3445,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:22:18</t>
+          <t>2024-06-23 13:27:57</t>
         </is>
       </c>
       <c r="I5" s="2" t="n"/>
@@ -3462,12 +3462,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:22:43</t>
+          <t>2024-06-23 13:28:23</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3791,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:05</t>
+          <t>2024-06-23 13:34:13</t>
         </is>
       </c>
       <c r="D14" s="2" t="n"/>
@@ -3808,12 +3808,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:23</t>
+          <t>2024-06-23 13:34:34</t>
         </is>
       </c>
       <c r="I14" s="2" t="n"/>
@@ -3825,12 +3825,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:48</t>
+          <t>2024-06-23 13:34:58</t>
         </is>
       </c>
     </row>
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:07</t>
+          <t>2024-06-23 13:28:54</t>
         </is>
       </c>
       <c r="D23" s="2" t="n"/>
@@ -4171,12 +4171,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:23</t>
+          <t>2024-06-23 13:29:24</t>
         </is>
       </c>
       <c r="I23" s="2" t="n"/>
@@ -4188,12 +4188,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:45</t>
+          <t>2024-06-23 13:29:51</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:16</t>
+          <t>2024-06-23 13:28:54</t>
         </is>
       </c>
       <c r="C32" s="2" t="n"/>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:40</t>
+          <t>2024-06-23 13:29:23</t>
         </is>
       </c>
       <c r="H32" s="2" t="n"/>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:03</t>
+          <t>2024-06-23 13:29:50</t>
         </is>
       </c>
       <c r="M32" s="2" t="n"/>
@@ -5027,12 +5027,12 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:43</t>
+          <t>2024-06-23 13:32:43</t>
         </is>
       </c>
       <c r="D50" s="2" t="n"/>
@@ -5044,12 +5044,12 @@
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:01</t>
+          <t>2024-06-23 13:33:07</t>
         </is>
       </c>
       <c r="I50" s="2" t="n"/>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:22</t>
+          <t>2024-06-23 13:33:28</t>
         </is>
       </c>
     </row>
@@ -5390,12 +5390,12 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:29:30</t>
+          <t>2024-06-23 13:35:40</t>
         </is>
       </c>
       <c r="D59" s="2" t="n"/>
@@ -5407,12 +5407,12 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:30:08</t>
+          <t>2024-06-23 13:36:15</t>
         </is>
       </c>
       <c r="I59" s="2" t="n"/>
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:30:31</t>
+          <t>2024-06-23 13:36:39</t>
         </is>
       </c>
     </row>
@@ -5772,12 +5772,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:51</t>
+          <t>2024-06-23 13:32:55</t>
         </is>
       </c>
       <c r="D5" s="2" t="n"/>
@@ -5789,12 +5789,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:17</t>
+          <t>2024-06-23 13:33:22</t>
         </is>
       </c>
       <c r="I5" s="2" t="n"/>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:43</t>
+          <t>2024-06-23 13:33:49</t>
         </is>
       </c>
     </row>
@@ -6135,12 +6135,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:21:51</t>
+          <t>2024-06-23 13:27:24</t>
         </is>
       </c>
       <c r="D14" s="2" t="n"/>
@@ -6152,12 +6152,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:22:22</t>
+          <t>2024-06-23 13:27:57</t>
         </is>
       </c>
       <c r="I14" s="2" t="n"/>
@@ -6169,12 +6169,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:22:48</t>
+          <t>2024-06-23 13:28:22</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:21:48</t>
+          <t>2024-06-23 13:27:21</t>
         </is>
       </c>
       <c r="C23" s="2" t="n"/>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:22:14</t>
+          <t>2024-06-23 13:27:51</t>
         </is>
       </c>
       <c r="H23" s="2" t="n"/>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:22:36</t>
+          <t>2024-06-23 13:28:13</t>
         </is>
       </c>
       <c r="M23" s="2" t="n"/>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C32" s="2" t="n"/>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H32" s="2" t="n"/>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M32" s="2" t="n"/>
@@ -7080,12 +7080,12 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:30:17</t>
+          <t>2024-06-23 13:36:29</t>
         </is>
       </c>
       <c r="D41" s="2" t="n"/>
@@ -7097,12 +7097,12 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:30:36</t>
+          <t>2024-06-23 13:36:49</t>
         </is>
       </c>
       <c r="I41" s="2" t="n"/>
@@ -7114,12 +7114,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:30:52</t>
+          <t>2024-06-23 13:37:03</t>
         </is>
       </c>
     </row>
@@ -7648,12 +7648,12 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:21</t>
+          <t>2024-06-23 13:30:01</t>
         </is>
       </c>
       <c r="D59" s="2" t="n"/>
@@ -7665,12 +7665,12 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:40</t>
+          <t>2024-06-23 13:30:27</t>
         </is>
       </c>
       <c r="I59" s="2" t="n"/>
@@ -7682,7 +7682,7 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M59" s="2" t="n"/>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:37</t>
+          <t>2024-06-23 13:30:28</t>
         </is>
       </c>
       <c r="C68" s="2" t="n"/>
@@ -7972,7 +7972,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:04</t>
+          <t>2024-06-23 13:31:00</t>
         </is>
       </c>
       <c r="H68" s="2" t="n"/>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:29</t>
+          <t>2024-06-23 13:31:27</t>
         </is>
       </c>
       <c r="M68" s="2" t="n"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:37</t>
+          <t>2024-06-23 13:31:28</t>
         </is>
       </c>
       <c r="C77" s="2" t="n"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:59</t>
+          <t>2024-06-23 13:31:54</t>
         </is>
       </c>
       <c r="H77" s="2" t="n"/>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:21</t>
+          <t>2024-06-23 13:32:18</t>
         </is>
       </c>
       <c r="M77" s="2" t="n"/>
@@ -8583,12 +8583,12 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:29</t>
+          <t>2024-06-23 13:32:24</t>
         </is>
       </c>
       <c r="D86" s="2" t="n"/>
@@ -8600,12 +8600,12 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:54</t>
+          <t>2024-06-23 13:32:49</t>
         </is>
       </c>
       <c r="I86" s="2" t="n"/>
@@ -8617,12 +8617,12 @@
       </c>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:11</t>
+          <t>2024-06-23 13:33:10</t>
         </is>
       </c>
     </row>
@@ -8946,12 +8946,12 @@
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:43</t>
+          <t>2024-06-23 13:34:37</t>
         </is>
       </c>
       <c r="D95" s="2" t="n"/>
@@ -8963,12 +8963,12 @@
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:29:14</t>
+          <t>2024-06-23 13:35:12</t>
         </is>
       </c>
       <c r="I95" s="2" t="n"/>
@@ -8980,12 +8980,12 @@
       </c>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:29:49</t>
+          <t>2024-06-23 13:35:56</t>
         </is>
       </c>
     </row>
@@ -9328,12 +9328,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:06</t>
+          <t>2024-06-23 13:33:15</t>
         </is>
       </c>
       <c r="D5" s="2" t="n"/>
@@ -9345,12 +9345,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:34</t>
+          <t>2024-06-23 13:33:43</t>
         </is>
       </c>
       <c r="I5" s="2" t="n"/>
@@ -9362,12 +9362,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:02</t>
+          <t>2024-06-23 13:34:08</t>
         </is>
       </c>
     </row>
@@ -9691,12 +9691,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:21:51</t>
+          <t>2024-06-23 13:27:22</t>
         </is>
       </c>
       <c r="D14" s="2" t="n"/>
@@ -9708,12 +9708,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:22:22</t>
+          <t>2024-06-23 13:27:52</t>
         </is>
       </c>
       <c r="I14" s="2" t="n"/>
@@ -9725,12 +9725,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:22:47</t>
+          <t>2024-06-23 13:28:19</t>
         </is>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C23" s="2" t="n"/>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H23" s="2" t="n"/>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M23" s="2" t="n"/>
@@ -10345,12 +10345,12 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:40</t>
+          <t>2024-06-23 13:33:54</t>
         </is>
       </c>
       <c r="D32" s="2" t="n"/>
@@ -10362,12 +10362,12 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:27:58</t>
+          <t>2024-06-23 13:34:17</t>
         </is>
       </c>
       <c r="I32" s="2" t="n"/>
@@ -10379,12 +10379,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:18</t>
+          <t>2024-06-23 13:34:39</t>
         </is>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:15</t>
+          <t>2024-06-23 13:28:53</t>
         </is>
       </c>
       <c r="C41" s="2" t="n"/>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:37</t>
+          <t>2024-06-23 13:29:19</t>
         </is>
       </c>
       <c r="H41" s="2" t="n"/>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:56</t>
+          <t>2024-06-23 13:29:34</t>
         </is>
       </c>
       <c r="M41" s="2" t="n"/>
@@ -11218,12 +11218,12 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:27</t>
+          <t>2024-06-23 13:30:22</t>
         </is>
       </c>
       <c r="D59" s="2" t="n"/>
@@ -11235,12 +11235,12 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:46</t>
+          <t>2024-06-23 13:30:47</t>
         </is>
       </c>
       <c r="I59" s="2" t="n"/>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:06</t>
+          <t>2024-06-23 13:31:07</t>
         </is>
       </c>
     </row>
@@ -11539,7 +11539,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:40</t>
+          <t>2024-06-23 13:31:30</t>
         </is>
       </c>
       <c r="C68" s="2" t="n"/>
@@ -11552,7 +11552,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:05</t>
+          <t>2024-06-23 13:32:00</t>
         </is>
       </c>
       <c r="H68" s="2" t="n"/>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:28</t>
+          <t>2024-06-23 13:32:28</t>
         </is>
       </c>
       <c r="M68" s="2" t="n"/>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:50</t>
+          <t>2024-06-23 13:31:54</t>
         </is>
       </c>
       <c r="C77" s="2" t="n"/>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:11</t>
+          <t>2024-06-23 13:32:18</t>
         </is>
       </c>
       <c r="H77" s="2" t="n"/>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:26:35</t>
+          <t>2024-06-23 13:32:42</t>
         </is>
       </c>
       <c r="M77" s="2" t="n"/>
@@ -12163,12 +12163,12 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:57</t>
+          <t>2024-06-23 13:35:19</t>
         </is>
       </c>
       <c r="D86" s="2" t="n"/>
@@ -12180,12 +12180,12 @@
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:29:36</t>
+          <t>2024-06-23 13:35:55</t>
         </is>
       </c>
       <c r="I86" s="2" t="n"/>
@@ -12197,12 +12197,12 @@
       </c>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:19:33</t>
+          <t>2024-06-23 13:24:50</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:30:13</t>
+          <t>2024-06-23 13:36:33</t>
         </is>
       </c>
     </row>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:21:50</t>
+          <t>2024-06-23 13:27:23</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:22:20</t>
+          <t>2024-06-23 13:27:53</t>
         </is>
       </c>
       <c r="H5" s="2" t="n"/>
@@ -12524,7 +12524,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:22:45</t>
+          <t>2024-06-23 13:28:20</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:14</t>
+          <t>2024-06-23 13:34:20</t>
         </is>
       </c>
       <c r="C32" s="2" t="n"/>
@@ -13199,7 +13199,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:28:37</t>
+          <t>2024-06-23 13:34:44</t>
         </is>
       </c>
       <c r="H32" s="2" t="n"/>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:16</t>
+          <t>2024-06-23 13:28:55</t>
         </is>
       </c>
       <c r="C41" s="2" t="n"/>
@@ -13471,7 +13471,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:23:41</t>
+          <t>2024-06-23 13:29:23</t>
         </is>
       </c>
       <c r="H41" s="2" t="n"/>
@@ -13484,7 +13484,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:03</t>
+          <t>2024-06-23 13:29:51</t>
         </is>
       </c>
     </row>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:30</t>
+          <t>2024-06-23 13:30:22</t>
         </is>
       </c>
       <c r="C59" s="2" t="n"/>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:24:48</t>
+          <t>2024-06-23 13:30:44</t>
         </is>
       </c>
       <c r="H59" s="2" t="n"/>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:25:08</t>
+          <t>2024-06-23 13:31:02</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:29:44</t>
+          <t>2024-06-23 13:35:53</t>
         </is>
       </c>
       <c r="C68" s="2" t="n"/>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>2024-06-23 12:30:21</t>
+          <t>2024-06-23 13:36:31</t>
         </is>
       </c>
       <c r="H68" s="2" t="n"/>
